--- a/LKG/Result_Final.xlsx
+++ b/LKG/Result_Final.xlsx
@@ -933,13 +933,13 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K2">
         <v>10.5</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -987,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC2">
         <v>5</v>
@@ -1023,109 +1023,109 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="AM2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO2">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AP2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR2">
-        <v>16.66666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AS2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU2">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AV2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AY2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA2">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="BB2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BE2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="BH2">
-        <v>26.67</v>
+        <v>33.33</v>
       </c>
       <c r="BI2">
-        <v>61.5</v>
+        <v>38.5</v>
       </c>
       <c r="BJ2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="BK2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="BL2">
-        <v>37</v>
+        <v>32.5</v>
       </c>
       <c r="BM2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS2" t="s">
         <v>94</v>
       </c>
       <c r="BT2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU2" t="s">
         <v>94</v>
@@ -1140,16 +1140,16 @@
         <v>94</v>
       </c>
       <c r="BY2">
-        <v>350.17</v>
+        <v>259.33</v>
       </c>
       <c r="BZ2" t="s">
         <v>94</v>
       </c>
       <c r="CA2">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB2">
-        <v>41.68690476190476</v>
+        <v>43.22166666666666</v>
       </c>
       <c r="CC2">
         <v>11</v>
@@ -1178,13 +1178,13 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -1214,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W3">
         <v>22.5</v>
@@ -1232,13 +1232,13 @@
         <v>7</v>
       </c>
       <c r="Z3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC3">
         <v>8</v>
@@ -1268,103 +1268,103 @@
         <v>7</v>
       </c>
       <c r="AL3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AM3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO3">
-        <v>83</v>
+        <v>41.5</v>
       </c>
       <c r="AP3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR3">
-        <v>53.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AS3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU3">
-        <v>65</v>
+        <v>32.5</v>
       </c>
       <c r="AV3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX3">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="AY3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="BB3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD3">
-        <v>96.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="BE3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG3">
-        <v>116</v>
+        <v>74.5</v>
       </c>
       <c r="BH3">
-        <v>71.33</v>
+        <v>71.67</v>
       </c>
       <c r="BI3">
-        <v>87</v>
+        <v>54.5</v>
       </c>
       <c r="BJ3">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="BK3">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="BL3">
-        <v>111.67</v>
+        <v>85.83</v>
       </c>
       <c r="BM3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS3" t="s">
         <v>94</v>
@@ -1385,16 +1385,16 @@
         <v>94</v>
       </c>
       <c r="BY3">
-        <v>626.9999999999999</v>
+        <v>446.5</v>
       </c>
       <c r="BZ3" t="s">
         <v>94</v>
       </c>
       <c r="CA3">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB3">
-        <v>74.64285714285714</v>
+        <v>74.41666666666666</v>
       </c>
       <c r="CC3">
         <v>7</v>
@@ -1423,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>18.75</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1459,13 +1459,13 @@
         <v>7</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W4">
         <v>19.5</v>
@@ -1477,13 +1477,13 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC4">
         <v>11</v>
@@ -1513,103 +1513,103 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AM4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO4">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AP4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR4">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU4">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AV4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AY4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA4">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="BB4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD4">
-        <v>76.66666666666667</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="BE4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG4">
-        <v>126.5</v>
+        <v>83.5</v>
       </c>
       <c r="BH4">
-        <v>109.83</v>
+        <v>87.92</v>
       </c>
       <c r="BI4">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="BJ4">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="BK4">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="BL4">
-        <v>83.67</v>
+        <v>55.83</v>
       </c>
       <c r="BM4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS4" t="s">
         <v>94</v>
@@ -1630,19 +1630,19 @@
         <v>94</v>
       </c>
       <c r="BY4">
-        <v>673.9999999999999</v>
+        <v>448.25</v>
       </c>
       <c r="BZ4" t="s">
         <v>94</v>
       </c>
       <c r="CA4">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB4">
-        <v>80.23809523809521</v>
+        <v>74.70833333333333</v>
       </c>
       <c r="CC4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1668,13 +1668,13 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K5">
         <v>18</v>
@@ -1704,13 +1704,13 @@
         <v>7</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W5">
         <v>24</v>
@@ -1722,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC5">
         <v>20</v>
@@ -1758,103 +1758,103 @@
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AM5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO5">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="AP5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR5">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU5">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="AV5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AY5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="BB5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BE5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG5">
-        <v>136.5</v>
+        <v>89.5</v>
       </c>
       <c r="BH5">
-        <v>113.33</v>
+        <v>96.67</v>
       </c>
       <c r="BI5">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="BJ5">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="BK5">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="BL5">
-        <v>119</v>
+        <v>97.5</v>
       </c>
       <c r="BM5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS5" t="s">
         <v>94</v>
@@ -1875,16 +1875,16 @@
         <v>94</v>
       </c>
       <c r="BY5">
-        <v>749.8299999999999</v>
+        <v>535.6700000000001</v>
       </c>
       <c r="BZ5" t="s">
         <v>94</v>
       </c>
       <c r="CA5">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB5">
-        <v>89.26547619047618</v>
+        <v>89.27833333333335</v>
       </c>
       <c r="CC5">
         <v>4</v>
@@ -1913,13 +1913,13 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>18.75</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1949,13 +1949,13 @@
         <v>7</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W6">
         <v>16</v>
@@ -1967,13 +1967,13 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC6">
         <v>7.5</v>
@@ -2003,103 +2003,103 @@
         <v>7</v>
       </c>
       <c r="AL6">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AM6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO6">
-        <v>59</v>
+        <v>29.5</v>
       </c>
       <c r="AP6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AS6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AV6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX6">
+        <v>46</v>
+      </c>
+      <c r="AY6">
+        <v>50</v>
+      </c>
+      <c r="AZ6">
+        <v>15</v>
+      </c>
+      <c r="BA6">
+        <v>31</v>
+      </c>
+      <c r="BB6">
+        <v>50</v>
+      </c>
+      <c r="BC6">
+        <v>15</v>
+      </c>
+      <c r="BD6">
+        <v>35</v>
+      </c>
+      <c r="BE6">
+        <v>50</v>
+      </c>
+      <c r="BF6">
+        <v>15</v>
+      </c>
+      <c r="BG6">
+        <v>56.5</v>
+      </c>
+      <c r="BH6">
+        <v>53.75</v>
+      </c>
+      <c r="BI6">
+        <v>34.5</v>
+      </c>
+      <c r="BJ6">
         <v>92</v>
       </c>
-      <c r="AY6">
-        <v>100</v>
-      </c>
-      <c r="AZ6">
-        <v>30</v>
-      </c>
-      <c r="BA6">
+      <c r="BK6">
         <v>62</v>
       </c>
-      <c r="BB6">
-        <v>100</v>
-      </c>
-      <c r="BC6">
-        <v>30</v>
-      </c>
-      <c r="BD6">
-        <v>70</v>
-      </c>
-      <c r="BE6">
-        <v>100</v>
-      </c>
-      <c r="BF6">
-        <v>30</v>
-      </c>
-      <c r="BG6">
-        <v>86</v>
-      </c>
-      <c r="BH6">
-        <v>61.5</v>
-      </c>
-      <c r="BI6">
-        <v>54.5</v>
-      </c>
-      <c r="BJ6">
-        <v>138</v>
-      </c>
-      <c r="BK6">
-        <v>93</v>
-      </c>
       <c r="BL6">
-        <v>83</v>
+        <v>67.5</v>
       </c>
       <c r="BM6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN6">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR6">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS6" t="s">
         <v>94</v>
@@ -2120,19 +2120,19 @@
         <v>94</v>
       </c>
       <c r="BY6">
-        <v>516</v>
+        <v>366.25</v>
       </c>
       <c r="BZ6" t="s">
         <v>94</v>
       </c>
       <c r="CA6">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB6">
-        <v>61.42857142857143</v>
+        <v>61.04166666666667</v>
       </c>
       <c r="CC6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:81">
@@ -2158,13 +2158,13 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K7">
         <v>20.5</v>
@@ -2194,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W7">
         <v>24</v>
@@ -2212,13 +2212,13 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC7">
         <v>23.5</v>
@@ -2248,103 +2248,103 @@
         <v>7</v>
       </c>
       <c r="AL7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AM7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO7">
+        <v>49</v>
+      </c>
+      <c r="AP7">
+        <v>50</v>
+      </c>
+      <c r="AQ7">
+        <v>15</v>
+      </c>
+      <c r="AR7">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AS7">
+        <v>50</v>
+      </c>
+      <c r="AT7">
+        <v>15</v>
+      </c>
+      <c r="AU7">
+        <v>46.5</v>
+      </c>
+      <c r="AV7">
+        <v>50</v>
+      </c>
+      <c r="AW7">
+        <v>15</v>
+      </c>
+      <c r="AX7">
+        <v>50</v>
+      </c>
+      <c r="AY7">
+        <v>50</v>
+      </c>
+      <c r="AZ7">
+        <v>15</v>
+      </c>
+      <c r="BA7">
+        <v>47</v>
+      </c>
+      <c r="BB7">
+        <v>50</v>
+      </c>
+      <c r="BC7">
+        <v>15</v>
+      </c>
+      <c r="BD7">
+        <v>50</v>
+      </c>
+      <c r="BE7">
+        <v>50</v>
+      </c>
+      <c r="BF7">
+        <v>15</v>
+      </c>
+      <c r="BG7">
         <v>98</v>
       </c>
-      <c r="AP7">
-        <v>100</v>
-      </c>
-      <c r="AQ7">
-        <v>30</v>
-      </c>
-      <c r="AR7">
-        <v>96.66666666666667</v>
-      </c>
-      <c r="AS7">
-        <v>100</v>
-      </c>
-      <c r="AT7">
-        <v>30</v>
-      </c>
-      <c r="AU7">
-        <v>93</v>
-      </c>
-      <c r="AV7">
-        <v>100</v>
-      </c>
-      <c r="AW7">
-        <v>30</v>
-      </c>
-      <c r="AX7">
-        <v>100</v>
-      </c>
-      <c r="AY7">
-        <v>100</v>
-      </c>
-      <c r="AZ7">
-        <v>30</v>
-      </c>
-      <c r="BA7">
-        <v>94</v>
-      </c>
-      <c r="BB7">
-        <v>100</v>
-      </c>
-      <c r="BC7">
-        <v>30</v>
-      </c>
-      <c r="BD7">
-        <v>100</v>
-      </c>
-      <c r="BE7">
-        <v>100</v>
-      </c>
-      <c r="BF7">
-        <v>30</v>
-      </c>
-      <c r="BG7">
-        <v>147</v>
-      </c>
       <c r="BH7">
-        <v>112.67</v>
+        <v>88.33</v>
       </c>
       <c r="BI7">
-        <v>137</v>
+        <v>90.5</v>
       </c>
       <c r="BJ7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BK7">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="BL7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BM7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS7" t="s">
         <v>94</v>
@@ -2365,16 +2365,16 @@
         <v>94</v>
       </c>
       <c r="BY7">
-        <v>807.6700000000001</v>
+        <v>570.8299999999999</v>
       </c>
       <c r="BZ7" t="s">
         <v>94</v>
       </c>
       <c r="CA7">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB7">
-        <v>96.15119047619048</v>
+        <v>95.13833333333332</v>
       </c>
       <c r="CC7">
         <v>2</v>
@@ -2403,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K8">
         <v>24</v>
@@ -2439,13 +2439,13 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W8">
         <v>25</v>
@@ -2457,13 +2457,13 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC8">
         <v>24</v>
@@ -2493,103 +2493,103 @@
         <v>7</v>
       </c>
       <c r="AL8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AM8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO8">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="AP8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AS8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU8">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="AV8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AY8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA8">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="BB8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BE8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG8">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="BH8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BI8">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="BJ8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BK8">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="BL8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BM8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS8" t="s">
         <v>94</v>
@@ -2610,16 +2610,16 @@
         <v>94</v>
       </c>
       <c r="BY8">
-        <v>813</v>
+        <v>585</v>
       </c>
       <c r="BZ8" t="s">
         <v>94</v>
       </c>
       <c r="CA8">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB8">
-        <v>96.78571428571429</v>
+        <v>97.5</v>
       </c>
       <c r="CC8">
         <v>1</v>
@@ -2648,13 +2648,13 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K9">
         <v>4.5</v>
@@ -2684,13 +2684,13 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W9">
         <v>20</v>
@@ -2702,13 +2702,13 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2741,100 +2741,100 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO9">
-        <v>59</v>
+        <v>29.5</v>
       </c>
       <c r="AP9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AS9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU9">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AV9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AY9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="BB9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD9">
-        <v>63.33333333333334</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="BE9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG9">
-        <v>98</v>
+        <v>68.5</v>
       </c>
       <c r="BH9">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="BI9">
-        <v>29.5</v>
+        <v>17</v>
       </c>
       <c r="BJ9">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="BK9">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="BL9">
-        <v>69.33</v>
+        <v>46.67</v>
       </c>
       <c r="BM9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS9" t="s">
         <v>94</v>
@@ -2855,19 +2855,19 @@
         <v>94</v>
       </c>
       <c r="BY9">
-        <v>526.83</v>
+        <v>358.17</v>
       </c>
       <c r="BZ9" t="s">
         <v>94</v>
       </c>
       <c r="CA9">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB9">
-        <v>62.71785714285715</v>
+        <v>59.695</v>
       </c>
       <c r="CC9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -2893,13 +2893,13 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K10">
         <v>9.5</v>
@@ -2929,13 +2929,13 @@
         <v>7</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W10">
         <v>21</v>
@@ -2947,13 +2947,13 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC10">
         <v>11</v>
@@ -2983,103 +2983,103 @@
         <v>7</v>
       </c>
       <c r="AL10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AM10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO10">
+        <v>37.5</v>
+      </c>
+      <c r="AP10">
+        <v>50</v>
+      </c>
+      <c r="AQ10">
+        <v>15</v>
+      </c>
+      <c r="AR10">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="AS10">
+        <v>50</v>
+      </c>
+      <c r="AT10">
+        <v>15</v>
+      </c>
+      <c r="AU10">
+        <v>31</v>
+      </c>
+      <c r="AV10">
+        <v>50</v>
+      </c>
+      <c r="AW10">
+        <v>15</v>
+      </c>
+      <c r="AX10">
+        <v>46</v>
+      </c>
+      <c r="AY10">
+        <v>50</v>
+      </c>
+      <c r="AZ10">
+        <v>15</v>
+      </c>
+      <c r="BA10">
+        <v>41</v>
+      </c>
+      <c r="BB10">
+        <v>50</v>
+      </c>
+      <c r="BC10">
+        <v>15</v>
+      </c>
+      <c r="BD10">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="BE10">
+        <v>50</v>
+      </c>
+      <c r="BF10">
+        <v>15</v>
+      </c>
+      <c r="BG10">
         <v>75</v>
       </c>
-      <c r="AP10">
-        <v>100</v>
-      </c>
-      <c r="AQ10">
-        <v>30</v>
-      </c>
-      <c r="AR10">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="AS10">
-        <v>100</v>
-      </c>
-      <c r="AT10">
-        <v>30</v>
-      </c>
-      <c r="AU10">
-        <v>62</v>
-      </c>
-      <c r="AV10">
-        <v>100</v>
-      </c>
-      <c r="AW10">
-        <v>30</v>
-      </c>
-      <c r="AX10">
-        <v>92</v>
-      </c>
-      <c r="AY10">
-        <v>100</v>
-      </c>
-      <c r="AZ10">
-        <v>30</v>
-      </c>
-      <c r="BA10">
-        <v>82</v>
-      </c>
-      <c r="BB10">
-        <v>100</v>
-      </c>
-      <c r="BC10">
-        <v>30</v>
-      </c>
-      <c r="BD10">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="BE10">
-        <v>100</v>
-      </c>
-      <c r="BF10">
-        <v>30</v>
-      </c>
-      <c r="BG10">
-        <v>112.5</v>
-      </c>
       <c r="BH10">
-        <v>88.33</v>
+        <v>74.17</v>
       </c>
       <c r="BI10">
-        <v>82.5</v>
+        <v>51.5</v>
       </c>
       <c r="BJ10">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="BK10">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="BL10">
-        <v>100.33</v>
+        <v>84.17</v>
       </c>
       <c r="BM10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS10" t="s">
         <v>94</v>
@@ -3100,19 +3100,19 @@
         <v>94</v>
       </c>
       <c r="BY10">
-        <v>640.66</v>
+        <v>454.84</v>
       </c>
       <c r="BZ10" t="s">
         <v>94</v>
       </c>
       <c r="CA10">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB10">
-        <v>76.26904761904761</v>
+        <v>75.80666666666667</v>
       </c>
       <c r="CC10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -3138,13 +3138,13 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -3174,13 +3174,13 @@
         <v>7</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W11">
         <v>19</v>
@@ -3192,13 +3192,13 @@
         <v>7</v>
       </c>
       <c r="Z11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC11">
         <v>7.5</v>
@@ -3228,103 +3228,103 @@
         <v>7</v>
       </c>
       <c r="AL11">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AM11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO11">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AP11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR11">
-        <v>53.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AS11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU11">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AV11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AY11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA11">
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD11">
-        <v>53.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="BE11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG11">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="BH11">
-        <v>65.33</v>
+        <v>56.67</v>
       </c>
       <c r="BI11">
-        <v>40.5</v>
+        <v>28.5</v>
       </c>
       <c r="BJ11">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="BK11">
         <v>37</v>
       </c>
       <c r="BL11">
-        <v>66.33</v>
+        <v>59.17</v>
       </c>
       <c r="BM11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS11" t="s">
         <v>94</v>
@@ -3339,22 +3339,22 @@
         <v>94</v>
       </c>
       <c r="BW11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BX11" t="s">
         <v>94</v>
       </c>
       <c r="BY11">
-        <v>426.16</v>
+        <v>327.34</v>
       </c>
       <c r="BZ11" t="s">
         <v>94</v>
       </c>
       <c r="CA11">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB11">
-        <v>50.73333333333333</v>
+        <v>54.55666666666667</v>
       </c>
       <c r="CC11">
         <v>10</v>
@@ -3383,13 +3383,13 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K12">
         <v>23</v>
@@ -3419,13 +3419,13 @@
         <v>7</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="W12">
         <v>23</v>
@@ -3437,13 +3437,13 @@
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC12">
         <v>24</v>
@@ -3473,103 +3473,103 @@
         <v>7</v>
       </c>
       <c r="AL12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AM12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AO12">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="AP12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR12">
-        <v>96.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AS12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU12">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="AV12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AY12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA12">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="BB12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BE12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG12">
-        <v>144.5</v>
+        <v>95.5</v>
       </c>
       <c r="BH12">
-        <v>116.67</v>
+        <v>98.33</v>
       </c>
       <c r="BI12">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="BJ12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BK12">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="BL12">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="BM12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BN12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BS12" t="s">
         <v>94</v>
@@ -3590,16 +3590,16 @@
         <v>94</v>
       </c>
       <c r="BY12">
-        <v>798.1700000000001</v>
+        <v>566.8299999999999</v>
       </c>
       <c r="BZ12" t="s">
         <v>94</v>
       </c>
       <c r="CA12">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB12">
-        <v>95.02023809523811</v>
+        <v>94.47166666666665</v>
       </c>
       <c r="CC12">
         <v>3</v>

--- a/LKG/Result_Final.xlsx
+++ b/LKG/Result_Final.xlsx
@@ -933,13 +933,13 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>10.5</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -987,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AA2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>5</v>
@@ -1023,13 +1023,13 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AM2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO2">
         <v>19</v>
@@ -1041,13 +1041,13 @@
         <v>15</v>
       </c>
       <c r="AR2">
-        <v>8.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="AS2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU2">
         <v>23</v>
@@ -1077,19 +1077,19 @@
         <v>15</v>
       </c>
       <c r="BD2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BE2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG2">
         <v>56</v>
       </c>
       <c r="BH2">
-        <v>33.33</v>
+        <v>15</v>
       </c>
       <c r="BI2">
         <v>38.5</v>
@@ -1101,13 +1101,13 @@
         <v>52</v>
       </c>
       <c r="BL2">
-        <v>32.5</v>
+        <v>16</v>
       </c>
       <c r="BM2">
         <v>100</v>
       </c>
       <c r="BN2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO2">
         <v>100</v>
@@ -1119,7 +1119,7 @@
         <v>100</v>
       </c>
       <c r="BR2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS2" t="s">
         <v>94</v>
@@ -1140,16 +1140,16 @@
         <v>94</v>
       </c>
       <c r="BY2">
-        <v>259.33</v>
+        <v>224.5</v>
       </c>
       <c r="BZ2" t="s">
         <v>94</v>
       </c>
       <c r="CA2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB2">
-        <v>43.22166666666666</v>
+        <v>44.9</v>
       </c>
       <c r="CC2">
         <v>11</v>
@@ -1178,13 +1178,13 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -1214,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="T3">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="U3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>22.5</v>
@@ -1232,13 +1232,13 @@
         <v>7</v>
       </c>
       <c r="Z3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>8</v>
@@ -1268,13 +1268,13 @@
         <v>7</v>
       </c>
       <c r="AL3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AM3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO3">
         <v>41.5</v>
@@ -1286,13 +1286,13 @@
         <v>15</v>
       </c>
       <c r="AR3">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="AS3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU3">
         <v>32.5</v>
@@ -1322,19 +1322,19 @@
         <v>15</v>
       </c>
       <c r="BD3">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="BE3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG3">
         <v>74.5</v>
       </c>
       <c r="BH3">
-        <v>71.67</v>
+        <v>34</v>
       </c>
       <c r="BI3">
         <v>54.5</v>
@@ -1346,13 +1346,13 @@
         <v>67</v>
       </c>
       <c r="BL3">
-        <v>85.83</v>
+        <v>44</v>
       </c>
       <c r="BM3">
         <v>100</v>
       </c>
       <c r="BN3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO3">
         <v>100</v>
@@ -1364,7 +1364,7 @@
         <v>100</v>
       </c>
       <c r="BR3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS3" t="s">
         <v>94</v>
@@ -1385,16 +1385,16 @@
         <v>94</v>
       </c>
       <c r="BY3">
-        <v>446.5</v>
+        <v>367</v>
       </c>
       <c r="BZ3" t="s">
         <v>94</v>
       </c>
       <c r="CA3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB3">
-        <v>74.41666666666666</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="CC3">
         <v>7</v>
@@ -1423,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>18.75</v>
+        <v>7.5</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1459,13 +1459,13 @@
         <v>7</v>
       </c>
       <c r="T4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>19.5</v>
@@ -1477,13 +1477,13 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC4">
         <v>11</v>
@@ -1513,13 +1513,13 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AM4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO4">
         <v>43</v>
@@ -1531,13 +1531,13 @@
         <v>15</v>
       </c>
       <c r="AR4">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU4">
         <v>41</v>
@@ -1567,19 +1567,19 @@
         <v>15</v>
       </c>
       <c r="BD4">
-        <v>38.33333333333334</v>
+        <v>23</v>
       </c>
       <c r="BE4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG4">
         <v>83.5</v>
       </c>
       <c r="BH4">
-        <v>87.92</v>
+        <v>44.5</v>
       </c>
       <c r="BI4">
         <v>62</v>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="BL4">
-        <v>55.83</v>
+        <v>30</v>
       </c>
       <c r="BM4">
         <v>100</v>
       </c>
       <c r="BN4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO4">
         <v>100</v>
@@ -1609,7 +1609,7 @@
         <v>100</v>
       </c>
       <c r="BR4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS4" t="s">
         <v>94</v>
@@ -1630,19 +1630,19 @@
         <v>94</v>
       </c>
       <c r="BY4">
-        <v>448.25</v>
+        <v>379</v>
       </c>
       <c r="BZ4" t="s">
         <v>94</v>
       </c>
       <c r="CA4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB4">
-        <v>74.70833333333333</v>
+        <v>75.8</v>
       </c>
       <c r="CC4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1668,13 +1668,13 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>18</v>
@@ -1704,13 +1704,13 @@
         <v>7</v>
       </c>
       <c r="T5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>24</v>
@@ -1722,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>20</v>
@@ -1758,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AM5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO5">
         <v>47</v>
@@ -1776,13 +1776,13 @@
         <v>15</v>
       </c>
       <c r="AR5">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU5">
         <v>44</v>
@@ -1812,19 +1812,19 @@
         <v>15</v>
       </c>
       <c r="BD5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BE5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG5">
         <v>89.5</v>
       </c>
       <c r="BH5">
-        <v>96.67</v>
+        <v>48</v>
       </c>
       <c r="BI5">
         <v>82</v>
@@ -1836,13 +1836,13 @@
         <v>73</v>
       </c>
       <c r="BL5">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BM5">
         <v>100</v>
       </c>
       <c r="BN5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO5">
         <v>100</v>
@@ -1854,7 +1854,7 @@
         <v>100</v>
       </c>
       <c r="BR5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS5" t="s">
         <v>94</v>
@@ -1875,16 +1875,16 @@
         <v>94</v>
       </c>
       <c r="BY5">
-        <v>535.6700000000001</v>
+        <v>438.5</v>
       </c>
       <c r="BZ5" t="s">
         <v>94</v>
       </c>
       <c r="CA5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB5">
-        <v>89.27833333333335</v>
+        <v>87.7</v>
       </c>
       <c r="CC5">
         <v>4</v>
@@ -1913,13 +1913,13 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>18.75</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1949,13 +1949,13 @@
         <v>7</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>16</v>
@@ -1967,13 +1967,13 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>7.5</v>
@@ -2003,13 +2003,13 @@
         <v>7</v>
       </c>
       <c r="AL6">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AM6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO6">
         <v>29.5</v>
@@ -2021,13 +2021,13 @@
         <v>15</v>
       </c>
       <c r="AR6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AS6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU6">
         <v>20</v>
@@ -2057,19 +2057,19 @@
         <v>15</v>
       </c>
       <c r="BD6">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="BE6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG6">
         <v>56.5</v>
       </c>
       <c r="BH6">
-        <v>53.75</v>
+        <v>26.5</v>
       </c>
       <c r="BI6">
         <v>34.5</v>
@@ -2081,13 +2081,13 @@
         <v>62</v>
       </c>
       <c r="BL6">
-        <v>67.5</v>
+        <v>34</v>
       </c>
       <c r="BM6">
         <v>100</v>
       </c>
       <c r="BN6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO6">
         <v>100</v>
@@ -2099,7 +2099,7 @@
         <v>100</v>
       </c>
       <c r="BR6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS6" t="s">
         <v>94</v>
@@ -2120,16 +2120,16 @@
         <v>94</v>
       </c>
       <c r="BY6">
-        <v>366.25</v>
+        <v>305.5</v>
       </c>
       <c r="BZ6" t="s">
         <v>94</v>
       </c>
       <c r="CA6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB6">
-        <v>61.04166666666667</v>
+        <v>61.1</v>
       </c>
       <c r="CC6">
         <v>8</v>
@@ -2158,13 +2158,13 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>20.5</v>
@@ -2194,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="T7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>24</v>
@@ -2212,13 +2212,13 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>23.5</v>
@@ -2248,13 +2248,13 @@
         <v>7</v>
       </c>
       <c r="AL7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO7">
         <v>49</v>
@@ -2266,13 +2266,13 @@
         <v>15</v>
       </c>
       <c r="AR7">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU7">
         <v>46.5</v>
@@ -2302,19 +2302,19 @@
         <v>15</v>
       </c>
       <c r="BD7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BE7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG7">
         <v>98</v>
       </c>
       <c r="BH7">
-        <v>88.33</v>
+        <v>45</v>
       </c>
       <c r="BI7">
         <v>90.5</v>
@@ -2326,13 +2326,13 @@
         <v>94</v>
       </c>
       <c r="BL7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BM7">
         <v>100</v>
       </c>
       <c r="BN7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO7">
         <v>100</v>
@@ -2344,7 +2344,7 @@
         <v>100</v>
       </c>
       <c r="BR7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS7" t="s">
         <v>94</v>
@@ -2365,16 +2365,16 @@
         <v>94</v>
       </c>
       <c r="BY7">
-        <v>570.8299999999999</v>
+        <v>477.5</v>
       </c>
       <c r="BZ7" t="s">
         <v>94</v>
       </c>
       <c r="CA7">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB7">
-        <v>95.13833333333332</v>
+        <v>95.5</v>
       </c>
       <c r="CC7">
         <v>2</v>
@@ -2403,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>24</v>
@@ -2439,13 +2439,13 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>25</v>
@@ -2457,13 +2457,13 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>24</v>
@@ -2493,13 +2493,13 @@
         <v>7</v>
       </c>
       <c r="AL8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>46</v>
@@ -2511,13 +2511,13 @@
         <v>15</v>
       </c>
       <c r="AR8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU8">
         <v>46</v>
@@ -2547,19 +2547,19 @@
         <v>15</v>
       </c>
       <c r="BD8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BE8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG8">
         <v>96</v>
       </c>
       <c r="BH8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI8">
         <v>94</v>
@@ -2571,13 +2571,13 @@
         <v>95</v>
       </c>
       <c r="BL8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BM8">
         <v>100</v>
       </c>
       <c r="BN8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO8">
         <v>100</v>
@@ -2589,7 +2589,7 @@
         <v>100</v>
       </c>
       <c r="BR8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS8" t="s">
         <v>94</v>
@@ -2610,16 +2610,16 @@
         <v>94</v>
       </c>
       <c r="BY8">
-        <v>585</v>
+        <v>485</v>
       </c>
       <c r="BZ8" t="s">
         <v>94</v>
       </c>
       <c r="CA8">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB8">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="CC8">
         <v>1</v>
@@ -2648,13 +2648,13 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>4.5</v>
@@ -2684,13 +2684,13 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>20</v>
@@ -2702,13 +2702,13 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>29.5</v>
@@ -2756,13 +2756,13 @@
         <v>15</v>
       </c>
       <c r="AR9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AS9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU9">
         <v>12.5</v>
@@ -2792,19 +2792,19 @@
         <v>15</v>
       </c>
       <c r="BD9">
-        <v>31.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="BE9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG9">
         <v>68.5</v>
       </c>
       <c r="BH9">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="BI9">
         <v>17</v>
@@ -2816,13 +2816,13 @@
         <v>60</v>
       </c>
       <c r="BL9">
-        <v>46.67</v>
+        <v>25</v>
       </c>
       <c r="BM9">
         <v>100</v>
       </c>
       <c r="BN9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO9">
         <v>100</v>
@@ -2834,7 +2834,7 @@
         <v>100</v>
       </c>
       <c r="BR9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS9" t="s">
         <v>94</v>
@@ -2855,16 +2855,16 @@
         <v>94</v>
       </c>
       <c r="BY9">
-        <v>358.17</v>
+        <v>302.5</v>
       </c>
       <c r="BZ9" t="s">
         <v>94</v>
       </c>
       <c r="CA9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB9">
-        <v>59.695</v>
+        <v>60.5</v>
       </c>
       <c r="CC9">
         <v>9</v>
@@ -2893,13 +2893,13 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>9.5</v>
@@ -2929,13 +2929,13 @@
         <v>7</v>
       </c>
       <c r="T10">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>21</v>
@@ -2947,13 +2947,13 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AA10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC10">
         <v>11</v>
@@ -2983,13 +2983,13 @@
         <v>7</v>
       </c>
       <c r="AL10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>37.5</v>
@@ -3001,13 +3001,13 @@
         <v>15</v>
       </c>
       <c r="AR10">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="AS10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU10">
         <v>31</v>
@@ -3037,19 +3037,19 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="BE10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG10">
         <v>75</v>
       </c>
       <c r="BH10">
-        <v>74.17</v>
+        <v>37</v>
       </c>
       <c r="BI10">
         <v>51.5</v>
@@ -3061,13 +3061,13 @@
         <v>79</v>
       </c>
       <c r="BL10">
-        <v>84.17</v>
+        <v>42</v>
       </c>
       <c r="BM10">
         <v>100</v>
       </c>
       <c r="BN10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO10">
         <v>100</v>
@@ -3079,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="BR10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS10" t="s">
         <v>94</v>
@@ -3100,19 +3100,19 @@
         <v>94</v>
       </c>
       <c r="BY10">
-        <v>454.84</v>
+        <v>375.5</v>
       </c>
       <c r="BZ10" t="s">
         <v>94</v>
       </c>
       <c r="CA10">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB10">
-        <v>75.80666666666667</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="CC10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -3138,13 +3138,13 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -3174,13 +3174,13 @@
         <v>7</v>
       </c>
       <c r="T11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>19</v>
@@ -3192,13 +3192,13 @@
         <v>7</v>
       </c>
       <c r="Z11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC11">
         <v>7.5</v>
@@ -3228,13 +3228,13 @@
         <v>7</v>
       </c>
       <c r="AL11">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AM11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>31</v>
@@ -3246,13 +3246,13 @@
         <v>15</v>
       </c>
       <c r="AR11">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="AS11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU11">
         <v>12</v>
@@ -3282,19 +3282,19 @@
         <v>15</v>
       </c>
       <c r="BD11">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="BE11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG11">
         <v>61</v>
       </c>
       <c r="BH11">
-        <v>56.67</v>
+        <v>28</v>
       </c>
       <c r="BI11">
         <v>28.5</v>
@@ -3306,13 +3306,13 @@
         <v>37</v>
       </c>
       <c r="BL11">
-        <v>59.17</v>
+        <v>29</v>
       </c>
       <c r="BM11">
         <v>100</v>
       </c>
       <c r="BN11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO11">
         <v>100</v>
@@ -3324,7 +3324,7 @@
         <v>100</v>
       </c>
       <c r="BR11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS11" t="s">
         <v>94</v>
@@ -3345,16 +3345,16 @@
         <v>94</v>
       </c>
       <c r="BY11">
-        <v>327.34</v>
+        <v>268.5</v>
       </c>
       <c r="BZ11" t="s">
         <v>94</v>
       </c>
       <c r="CA11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB11">
-        <v>54.55666666666667</v>
+        <v>53.7</v>
       </c>
       <c r="CC11">
         <v>10</v>
@@ -3383,13 +3383,13 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>23</v>
@@ -3419,13 +3419,13 @@
         <v>7</v>
       </c>
       <c r="T12">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="U12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="W12">
         <v>23</v>
@@ -3437,13 +3437,13 @@
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC12">
         <v>24</v>
@@ -3473,13 +3473,13 @@
         <v>7</v>
       </c>
       <c r="AL12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AM12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AN12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AO12">
         <v>49</v>
@@ -3491,13 +3491,13 @@
         <v>15</v>
       </c>
       <c r="AR12">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU12">
         <v>44</v>
@@ -3527,19 +3527,19 @@
         <v>15</v>
       </c>
       <c r="BD12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BE12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BF12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BG12">
         <v>95.5</v>
       </c>
       <c r="BH12">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BI12">
         <v>91</v>
@@ -3551,13 +3551,13 @@
         <v>87</v>
       </c>
       <c r="BL12">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="BM12">
         <v>100</v>
       </c>
       <c r="BN12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO12">
         <v>100</v>
@@ -3569,7 +3569,7 @@
         <v>100</v>
       </c>
       <c r="BR12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BS12" t="s">
         <v>94</v>
@@ -3590,16 +3590,16 @@
         <v>94</v>
       </c>
       <c r="BY12">
-        <v>566.8299999999999</v>
+        <v>470.5</v>
       </c>
       <c r="BZ12" t="s">
         <v>94</v>
       </c>
       <c r="CA12">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB12">
-        <v>94.47166666666665</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="CC12">
         <v>3</v>

--- a/LKG/Result_Final.xlsx
+++ b/LKG/Result_Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="111">
   <si>
     <t>Student Name</t>
   </si>
@@ -28,58 +28,94 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Formative Assessment-3_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Oral Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Oral Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Oral Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_English_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Rhymes</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Rhymes_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Rhymes_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Drawing</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Drawing_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Drawing_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Oral English</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Oral English_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-3_Oral English_pass</t>
+    <t>Formative Assessment -III_Rhymes</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Rhymes_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Rhymes_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Oral English</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Oral English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Oral English_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Oral Maths</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Oral Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Oral Maths_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_English</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_English_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Maths</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Maths_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Drawing</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Drawing_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -III_Drawing_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Rhymes</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Rhymes_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Rhymes_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Oral English</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Oral English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Oral English_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Oral Maths</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Oral Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_Oral Maths_pass</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment -4_English_pass</t>
   </si>
   <si>
     <t>Formative Assessment -4_Maths</t>
@@ -91,33 +127,6 @@
     <t>Formative Assessment -4_Maths_pass</t>
   </si>
   <si>
-    <t>Formative Assessment -4_Oral Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Oral Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Oral Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_English_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Rhymes</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Rhymes_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Rhymes_pass</t>
-  </si>
-  <si>
     <t>Formative Assessment -4_Drawing</t>
   </si>
   <si>
@@ -127,123 +136,114 @@
     <t>Formative Assessment -4_Drawing_pass</t>
   </si>
   <si>
-    <t>Formative Assessment -4_Oral English</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Oral English_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -4_Oral English_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Maths</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Maths_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Maths_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Oral Maths</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Oral Maths_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Oral Maths_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_English_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Rhymes</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Rhymes_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Rhymes_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Drawing</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Drawing_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Drawing_pass</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Oral English</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Oral English_total</t>
-  </si>
-  <si>
-    <t>Annual Exam-2023_Oral English_pass</t>
+    <t>Anuual Exam 2024_Rhymes</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Rhymes_total</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Rhymes_pass</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Oral English</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Oral English_total</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Oral English_pass</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Oral Maths</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Oral Maths_total</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Oral Maths_pass</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_English</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_English_total</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_English_pass</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Maths</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Maths_total</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Maths_pass</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Drawing</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Drawing_total</t>
+  </si>
+  <si>
+    <t>Anuual Exam 2024_Drawing_pass</t>
+  </si>
+  <si>
+    <t>Weightage Rhymes</t>
+  </si>
+  <si>
+    <t>Weightage Oral English</t>
+  </si>
+  <si>
+    <t>Weightage Oral Maths</t>
+  </si>
+  <si>
+    <t>Weightage English</t>
   </si>
   <si>
     <t>Weightage Maths</t>
   </si>
   <si>
-    <t>Weightage Oral Maths</t>
-  </si>
-  <si>
-    <t>Weightage English</t>
-  </si>
-  <si>
-    <t>Weightage Rhymes</t>
-  </si>
-  <si>
     <t>Weightage Drawing</t>
   </si>
   <si>
-    <t>Weightage Oral English</t>
+    <t>Weightage Rhymes total</t>
+  </si>
+  <si>
+    <t>Weightage Oral English total</t>
+  </si>
+  <si>
+    <t>Weightage Oral Maths total</t>
+  </si>
+  <si>
+    <t>Weightage English total</t>
   </si>
   <si>
     <t>Weightage Maths total</t>
   </si>
   <si>
-    <t>Weightage Oral Maths total</t>
-  </si>
-  <si>
-    <t>Weightage English total</t>
-  </si>
-  <si>
-    <t>Weightage Rhymes total</t>
-  </si>
-  <si>
     <t>Weightage Drawing total</t>
   </si>
   <si>
-    <t>Weightage Oral English total</t>
+    <t>Result Rhymes</t>
+  </si>
+  <si>
+    <t>Result Oral English</t>
+  </si>
+  <si>
+    <t>Result Oral Maths</t>
+  </si>
+  <si>
+    <t>Result English</t>
   </si>
   <si>
     <t>Result Maths</t>
   </si>
   <si>
-    <t>Result Oral Maths</t>
-  </si>
-  <si>
-    <t>Result English</t>
-  </si>
-  <si>
-    <t>Result Rhymes</t>
-  </si>
-  <si>
     <t>Result Drawing</t>
   </si>
   <si>
-    <t>Result Oral English</t>
-  </si>
-  <si>
     <t>Total Weightage</t>
   </si>
   <si>
@@ -259,37 +259,82 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Eric Sharma</t>
-  </si>
-  <si>
-    <t>Manab Mukherjee</t>
-  </si>
-  <si>
-    <t>Prince Sonar</t>
-  </si>
-  <si>
-    <t>Saurav Kumar</t>
-  </si>
-  <si>
-    <t>Hriday Das</t>
-  </si>
-  <si>
-    <t>Yesh Raj Rai</t>
-  </si>
-  <si>
-    <t>Yamini Kataky</t>
-  </si>
-  <si>
-    <t>Riman Ali Mandal</t>
-  </si>
-  <si>
-    <t>Joy Chakrabarty</t>
-  </si>
-  <si>
-    <t>Sushant Sharma</t>
-  </si>
-  <si>
-    <t>Omraj Singh</t>
+    <t>Nityam Kumar</t>
+  </si>
+  <si>
+    <t>Abhik Upadhya</t>
+  </si>
+  <si>
+    <t>Pratisha Chetri</t>
+  </si>
+  <si>
+    <t>Ankita Sharki</t>
+  </si>
+  <si>
+    <t>Ayush Talukdar</t>
+  </si>
+  <si>
+    <t>Priyanshi Banik</t>
+  </si>
+  <si>
+    <t>Bheemank Sharma</t>
+  </si>
+  <si>
+    <t>Hardik Rout</t>
+  </si>
+  <si>
+    <t>Dhruv Talukdar</t>
+  </si>
+  <si>
+    <t>Sneha Dey</t>
+  </si>
+  <si>
+    <t>Anshuman Boro</t>
+  </si>
+  <si>
+    <t>Gunjan Deka</t>
+  </si>
+  <si>
+    <t>Prakriti Chetry</t>
+  </si>
+  <si>
+    <t>Toufid Alam</t>
+  </si>
+  <si>
+    <t>Shristi Chetri</t>
+  </si>
+  <si>
+    <t>Agastya Chetri</t>
+  </si>
+  <si>
+    <t>Shakshi Sarma</t>
+  </si>
+  <si>
+    <t>Dhitika Barman</t>
+  </si>
+  <si>
+    <t>Ankush Yadav</t>
+  </si>
+  <si>
+    <t>Nandini Jha</t>
+  </si>
+  <si>
+    <t>Ronak Jha</t>
+  </si>
+  <si>
+    <t>Rakif Hussain</t>
+  </si>
+  <si>
+    <t>Anshu kumari</t>
+  </si>
+  <si>
+    <t>Arush Gwala</t>
+  </si>
+  <si>
+    <t>Rashidul Islam</t>
+  </si>
+  <si>
+    <t>Rajdeep Nath</t>
   </si>
   <si>
     <t>LKG</t>
@@ -659,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC12"/>
+  <dimension ref="A1:CC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,16 +960,16 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -933,25 +978,25 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K2">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>25</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -960,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -969,16 +1014,16 @@
         <v>7</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="X2">
         <v>25</v>
@@ -987,25 +1032,25 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AD2">
         <v>25</v>
       </c>
       <c r="AE2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AG2">
         <v>25</v>
@@ -1014,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1023,16 +1068,16 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AM2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AP2">
         <v>50</v>
@@ -1041,16 +1086,16 @@
         <v>15</v>
       </c>
       <c r="AR2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="AS2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AU2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AV2">
         <v>50</v>
@@ -1059,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="AX2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AY2">
         <v>50</v>
@@ -1068,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="BA2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="BB2">
         <v>50</v>
@@ -1077,37 +1122,37 @@
         <v>15</v>
       </c>
       <c r="BD2">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="BE2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BF2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG2">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="BH2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="BI2">
-        <v>38.5</v>
+        <v>100</v>
       </c>
       <c r="BJ2">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="BK2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="BL2">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="BM2">
         <v>100</v>
       </c>
       <c r="BN2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO2">
         <v>100</v>
@@ -1119,40 +1164,40 @@
         <v>100</v>
       </c>
       <c r="BR2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BS2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BT2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BU2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BV2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BW2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BX2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BY2">
-        <v>224.5</v>
+        <v>575</v>
       </c>
       <c r="BZ2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="CA2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="CB2">
-        <v>44.9</v>
+        <v>95.83333333333334</v>
       </c>
       <c r="CC2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:81">
@@ -1160,16 +1205,16 @@
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -1178,80 +1223,80 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>25</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N3">
+        <v>24.5</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>25</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <v>22.5</v>
+      </c>
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>7.5</v>
+      </c>
+      <c r="AC3">
+        <v>25</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7.5</v>
+      </c>
+      <c r="AF3">
         <v>22</v>
       </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>17</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>7</v>
-      </c>
-      <c r="U3">
-        <v>10</v>
-      </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3">
-        <v>22.5</v>
-      </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
-        <v>10</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>8</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>25</v>
-      </c>
       <c r="AG3">
         <v>25</v>
       </c>
@@ -1259,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="AI3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AJ3">
         <v>25</v>
@@ -1268,16 +1313,16 @@
         <v>7</v>
       </c>
       <c r="AL3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AM3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO3">
-        <v>41.5</v>
+        <v>49</v>
       </c>
       <c r="AP3">
         <v>50</v>
@@ -1286,16 +1331,16 @@
         <v>15</v>
       </c>
       <c r="AR3">
-        <v>16</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AU3">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="AV3">
         <v>50</v>
@@ -1304,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="AX3">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AY3">
         <v>50</v>
@@ -1313,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="BA3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BB3">
         <v>50</v>
@@ -1322,37 +1367,37 @@
         <v>15</v>
       </c>
       <c r="BD3">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="BE3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BF3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG3">
-        <v>74.5</v>
+        <v>99</v>
       </c>
       <c r="BH3">
-        <v>34</v>
+        <v>94.17</v>
       </c>
       <c r="BI3">
-        <v>54.5</v>
+        <v>90</v>
       </c>
       <c r="BJ3">
-        <v>93</v>
+        <v>83.5</v>
       </c>
       <c r="BK3">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="BL3">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="BM3">
         <v>100</v>
       </c>
       <c r="BN3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO3">
         <v>100</v>
@@ -1364,37 +1409,37 @@
         <v>100</v>
       </c>
       <c r="BR3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BS3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BT3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BU3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BV3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BW3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BX3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BY3">
-        <v>367</v>
+        <v>531.6700000000001</v>
       </c>
       <c r="BZ3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="CA3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="CB3">
-        <v>73.40000000000001</v>
+        <v>88.61166666666668</v>
       </c>
       <c r="CC3">
         <v>7</v>
@@ -1405,16 +1450,16 @@
         <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -1423,53 +1468,53 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L4">
         <v>25</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N4">
+        <v>14.5</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>11</v>
+      </c>
+      <c r="R4">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
         <v>17</v>
       </c>
-      <c r="O4">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>15</v>
-      </c>
-      <c r="R4">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>10</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>19.5</v>
-      </c>
       <c r="X4">
         <v>25</v>
       </c>
@@ -1477,25 +1522,25 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD4">
         <v>25</v>
       </c>
       <c r="AE4">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF4">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AG4">
         <v>25</v>
@@ -1504,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="AI4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AJ4">
         <v>25</v>
@@ -1513,16 +1558,16 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AM4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AP4">
         <v>50</v>
@@ -1531,16 +1576,16 @@
         <v>15</v>
       </c>
       <c r="AR4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AS4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AU4">
-        <v>41</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AV4">
         <v>50</v>
@@ -1549,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="AX4">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="AY4">
         <v>50</v>
@@ -1558,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="BA4">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="BB4">
         <v>50</v>
@@ -1567,37 +1612,37 @@
         <v>15</v>
       </c>
       <c r="BD4">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="BE4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BF4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG4">
-        <v>83.5</v>
+        <v>71</v>
       </c>
       <c r="BH4">
-        <v>44.5</v>
+        <v>85</v>
       </c>
       <c r="BI4">
-        <v>62</v>
+        <v>83.33</v>
       </c>
       <c r="BJ4">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="BK4">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="BL4">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="BM4">
         <v>100</v>
       </c>
       <c r="BN4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO4">
         <v>100</v>
@@ -1609,40 +1654,40 @@
         <v>100</v>
       </c>
       <c r="BR4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BS4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BT4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BU4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BV4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BW4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BX4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BY4">
-        <v>379</v>
+        <v>394.33</v>
       </c>
       <c r="BZ4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="CA4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="CB4">
-        <v>75.8</v>
+        <v>65.72166666666666</v>
       </c>
       <c r="CC4">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1650,16 +1695,16 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -1668,25 +1713,25 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5">
         <v>25</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <v>25</v>
@@ -1695,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>24.5</v>
       </c>
       <c r="R5">
         <v>25</v>
@@ -1704,70 +1749,70 @@
         <v>7</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W5">
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>7.5</v>
+      </c>
+      <c r="AC5">
+        <v>25</v>
+      </c>
+      <c r="AD5">
+        <v>25</v>
+      </c>
+      <c r="AE5">
+        <v>7.5</v>
+      </c>
+      <c r="AF5">
         <v>24</v>
       </c>
-      <c r="X5">
-        <v>25</v>
-      </c>
-      <c r="Y5">
-        <v>7</v>
-      </c>
-      <c r="Z5">
-        <v>10</v>
-      </c>
-      <c r="AA5">
-        <v>10</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
+      <c r="AG5">
+        <v>25</v>
+      </c>
+      <c r="AH5">
+        <v>7</v>
+      </c>
+      <c r="AI5">
+        <v>25</v>
+      </c>
+      <c r="AJ5">
+        <v>25</v>
+      </c>
+      <c r="AK5">
+        <v>7</v>
+      </c>
+      <c r="AL5">
         <v>20</v>
       </c>
-      <c r="AD5">
-        <v>25</v>
-      </c>
-      <c r="AE5">
-        <v>7</v>
-      </c>
-      <c r="AF5">
-        <v>22</v>
-      </c>
-      <c r="AG5">
-        <v>25</v>
-      </c>
-      <c r="AH5">
-        <v>7</v>
-      </c>
-      <c r="AI5">
-        <v>19</v>
-      </c>
-      <c r="AJ5">
-        <v>25</v>
-      </c>
-      <c r="AK5">
-        <v>7</v>
-      </c>
-      <c r="AL5">
-        <v>9</v>
-      </c>
       <c r="AM5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO5">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AP5">
         <v>50</v>
@@ -1776,16 +1821,16 @@
         <v>15</v>
       </c>
       <c r="AR5">
-        <v>28</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AU5">
-        <v>44</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AV5">
         <v>50</v>
@@ -1794,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="AX5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AY5">
         <v>50</v>
@@ -1803,7 +1848,7 @@
         <v>15</v>
       </c>
       <c r="BA5">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="BB5">
         <v>50</v>
@@ -1812,37 +1857,37 @@
         <v>15</v>
       </c>
       <c r="BD5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BE5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BF5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG5">
-        <v>89.5</v>
+        <v>98</v>
       </c>
       <c r="BH5">
-        <v>48</v>
+        <v>96.67</v>
       </c>
       <c r="BI5">
-        <v>82</v>
+        <v>96.67</v>
       </c>
       <c r="BJ5">
         <v>97</v>
       </c>
       <c r="BK5">
-        <v>73</v>
+        <v>97.5</v>
       </c>
       <c r="BL5">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="BM5">
         <v>100</v>
       </c>
       <c r="BN5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO5">
         <v>100</v>
@@ -1854,40 +1899,40 @@
         <v>100</v>
       </c>
       <c r="BR5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BS5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BT5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BU5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BV5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BW5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BX5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BY5">
-        <v>438.5</v>
+        <v>561.84</v>
       </c>
       <c r="BZ5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="CA5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="CB5">
-        <v>87.7</v>
+        <v>93.64</v>
       </c>
       <c r="CC5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -1895,16 +1940,16 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -1913,25 +1958,25 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <v>25</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N6">
-        <v>22</v>
+        <v>24.5</v>
       </c>
       <c r="O6">
         <v>25</v>
@@ -1940,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R6">
         <v>25</v>
@@ -1949,16 +1994,16 @@
         <v>7</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>25</v>
@@ -1967,25 +2012,25 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC6">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>25</v>
       </c>
       <c r="AE6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>25</v>
@@ -1994,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="AI6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>25</v>
@@ -2003,16 +2048,16 @@
         <v>7</v>
       </c>
       <c r="AL6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO6">
-        <v>29.5</v>
+        <v>50</v>
       </c>
       <c r="AP6">
         <v>50</v>
@@ -2021,16 +2066,16 @@
         <v>15</v>
       </c>
       <c r="AR6">
-        <v>15</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AS6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AU6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AV6">
         <v>50</v>
@@ -2039,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="AX6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AY6">
         <v>50</v>
@@ -2048,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="BA6">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="BB6">
         <v>50</v>
@@ -2057,37 +2102,37 @@
         <v>15</v>
       </c>
       <c r="BD6">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="BE6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BF6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG6">
-        <v>56.5</v>
+        <v>62</v>
       </c>
       <c r="BH6">
-        <v>26.5</v>
+        <v>73.33</v>
       </c>
       <c r="BI6">
-        <v>34.5</v>
+        <v>75</v>
       </c>
       <c r="BJ6">
-        <v>92</v>
+        <v>71.5</v>
       </c>
       <c r="BK6">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="BL6">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="BM6">
         <v>100</v>
       </c>
       <c r="BN6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO6">
         <v>100</v>
@@ -2099,40 +2144,40 @@
         <v>100</v>
       </c>
       <c r="BR6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BS6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BT6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BU6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BV6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BW6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BX6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BY6">
-        <v>305.5</v>
+        <v>414.83</v>
       </c>
       <c r="BZ6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="CA6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="CB6">
-        <v>61.1</v>
+        <v>69.13833333333334</v>
       </c>
       <c r="CC6">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:81">
@@ -2140,13 +2185,13 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -2158,226 +2203,226 @@
         <v>7</v>
       </c>
       <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>7.5</v>
+      </c>
+      <c r="K7">
+        <v>17.5</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>7.5</v>
+      </c>
+      <c r="N7">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>17</v>
+      </c>
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>25</v>
+      </c>
+      <c r="X7">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>25</v>
+      </c>
+      <c r="AA7">
+        <v>25</v>
+      </c>
+      <c r="AB7">
+        <v>7.5</v>
+      </c>
+      <c r="AC7">
+        <v>25</v>
+      </c>
+      <c r="AD7">
+        <v>25</v>
+      </c>
+      <c r="AE7">
+        <v>7.5</v>
+      </c>
+      <c r="AF7">
+        <v>17</v>
+      </c>
+      <c r="AG7">
+        <v>25</v>
+      </c>
+      <c r="AH7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
+        <v>23</v>
+      </c>
+      <c r="AJ7">
+        <v>25</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>18</v>
+      </c>
+      <c r="AM7">
+        <v>25</v>
+      </c>
+      <c r="AN7">
+        <v>7</v>
+      </c>
+      <c r="AO7">
+        <v>50</v>
+      </c>
+      <c r="AP7">
+        <v>50</v>
+      </c>
+      <c r="AQ7">
+        <v>15</v>
+      </c>
+      <c r="AR7">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="AS7">
+        <v>50</v>
+      </c>
+      <c r="AT7">
+        <v>15</v>
+      </c>
+      <c r="AU7">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AV7">
+        <v>50</v>
+      </c>
+      <c r="AW7">
+        <v>15</v>
+      </c>
+      <c r="AX7">
+        <v>42.5</v>
+      </c>
+      <c r="AY7">
+        <v>50</v>
+      </c>
+      <c r="AZ7">
+        <v>15</v>
+      </c>
+      <c r="BA7">
+        <v>33</v>
+      </c>
+      <c r="BB7">
+        <v>50</v>
+      </c>
+      <c r="BC7">
+        <v>15</v>
+      </c>
+      <c r="BD7">
+        <v>42</v>
+      </c>
+      <c r="BE7">
+        <v>50</v>
+      </c>
+      <c r="BF7">
+        <v>15</v>
+      </c>
+      <c r="BG7">
+        <v>100</v>
+      </c>
+      <c r="BH7">
+        <v>91.67</v>
+      </c>
+      <c r="BI7">
+        <v>89.17</v>
+      </c>
+      <c r="BJ7">
+        <v>80.5</v>
+      </c>
+      <c r="BK7">
+        <v>80</v>
+      </c>
+      <c r="BL7">
+        <v>77</v>
+      </c>
+      <c r="BM7">
+        <v>100</v>
+      </c>
+      <c r="BN7">
+        <v>100</v>
+      </c>
+      <c r="BO7">
+        <v>100</v>
+      </c>
+      <c r="BP7">
+        <v>100</v>
+      </c>
+      <c r="BQ7">
+        <v>100</v>
+      </c>
+      <c r="BR7">
+        <v>100</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY7">
+        <v>518.34</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA7">
+        <v>600</v>
+      </c>
+      <c r="CB7">
+        <v>86.39</v>
+      </c>
+      <c r="CC7">
         <v>10</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>20.5</v>
-      </c>
-      <c r="L7">
-        <v>25</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>25</v>
-      </c>
-      <c r="O7">
-        <v>25</v>
-      </c>
-      <c r="P7">
-        <v>7</v>
-      </c>
-      <c r="Q7">
-        <v>23</v>
-      </c>
-      <c r="R7">
-        <v>25</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <v>10</v>
-      </c>
-      <c r="U7">
-        <v>10</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>24</v>
-      </c>
-      <c r="X7">
-        <v>25</v>
-      </c>
-      <c r="Y7">
-        <v>7</v>
-      </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-      <c r="AA7">
-        <v>10</v>
-      </c>
-      <c r="AB7">
-        <v>3</v>
-      </c>
-      <c r="AC7">
-        <v>23.5</v>
-      </c>
-      <c r="AD7">
-        <v>25</v>
-      </c>
-      <c r="AE7">
-        <v>7</v>
-      </c>
-      <c r="AF7">
-        <v>25</v>
-      </c>
-      <c r="AG7">
-        <v>25</v>
-      </c>
-      <c r="AH7">
-        <v>7</v>
-      </c>
-      <c r="AI7">
-        <v>24</v>
-      </c>
-      <c r="AJ7">
-        <v>25</v>
-      </c>
-      <c r="AK7">
-        <v>7</v>
-      </c>
-      <c r="AL7">
-        <v>10</v>
-      </c>
-      <c r="AM7">
-        <v>10</v>
-      </c>
-      <c r="AN7">
-        <v>3</v>
-      </c>
-      <c r="AO7">
-        <v>49</v>
-      </c>
-      <c r="AP7">
-        <v>50</v>
-      </c>
-      <c r="AQ7">
-        <v>15</v>
-      </c>
-      <c r="AR7">
-        <v>29</v>
-      </c>
-      <c r="AS7">
-        <v>30</v>
-      </c>
-      <c r="AT7">
-        <v>9</v>
-      </c>
-      <c r="AU7">
-        <v>46.5</v>
-      </c>
-      <c r="AV7">
-        <v>50</v>
-      </c>
-      <c r="AW7">
-        <v>15</v>
-      </c>
-      <c r="AX7">
-        <v>50</v>
-      </c>
-      <c r="AY7">
-        <v>50</v>
-      </c>
-      <c r="AZ7">
-        <v>15</v>
-      </c>
-      <c r="BA7">
-        <v>47</v>
-      </c>
-      <c r="BB7">
-        <v>50</v>
-      </c>
-      <c r="BC7">
-        <v>15</v>
-      </c>
-      <c r="BD7">
-        <v>30</v>
-      </c>
-      <c r="BE7">
-        <v>30</v>
-      </c>
-      <c r="BF7">
-        <v>9</v>
-      </c>
-      <c r="BG7">
-        <v>98</v>
-      </c>
-      <c r="BH7">
-        <v>45</v>
-      </c>
-      <c r="BI7">
-        <v>90.5</v>
-      </c>
-      <c r="BJ7">
-        <v>100</v>
-      </c>
-      <c r="BK7">
-        <v>94</v>
-      </c>
-      <c r="BL7">
-        <v>50</v>
-      </c>
-      <c r="BM7">
-        <v>100</v>
-      </c>
-      <c r="BN7">
-        <v>50</v>
-      </c>
-      <c r="BO7">
-        <v>100</v>
-      </c>
-      <c r="BP7">
-        <v>100</v>
-      </c>
-      <c r="BQ7">
-        <v>100</v>
-      </c>
-      <c r="BR7">
-        <v>50</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY7">
-        <v>477.5</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>94</v>
-      </c>
-      <c r="CA7">
-        <v>500</v>
-      </c>
-      <c r="CB7">
-        <v>95.5</v>
-      </c>
-      <c r="CC7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:81">
@@ -2385,13 +2430,13 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>25</v>
@@ -2403,53 +2448,53 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>7.5</v>
+      </c>
+      <c r="N8">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>23</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>21</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
         <v>24</v>
       </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>25</v>
-      </c>
-      <c r="O8">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>25</v>
-      </c>
-      <c r="R8">
-        <v>25</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>10</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>25</v>
-      </c>
       <c r="X8">
         <v>25</v>
       </c>
@@ -2457,25 +2502,25 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD8">
         <v>25</v>
       </c>
       <c r="AE8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG8">
         <v>25</v>
@@ -2484,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="AI8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ8">
         <v>25</v>
@@ -2493,16 +2538,16 @@
         <v>7</v>
       </c>
       <c r="AL8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AM8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AP8">
         <v>50</v>
@@ -2511,16 +2556,16 @@
         <v>15</v>
       </c>
       <c r="AR8">
-        <v>30</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AS8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AU8">
-        <v>46</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AV8">
         <v>50</v>
@@ -2529,7 +2574,7 @@
         <v>15</v>
       </c>
       <c r="AX8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AY8">
         <v>50</v>
@@ -2538,7 +2583,7 @@
         <v>15</v>
       </c>
       <c r="BA8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BB8">
         <v>50</v>
@@ -2547,37 +2592,37 @@
         <v>15</v>
       </c>
       <c r="BD8">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="BE8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BF8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG8">
+        <v>99</v>
+      </c>
+      <c r="BH8">
+        <v>98.33</v>
+      </c>
+      <c r="BI8">
+        <v>98.33</v>
+      </c>
+      <c r="BJ8">
+        <v>81</v>
+      </c>
+      <c r="BK8">
         <v>96</v>
       </c>
-      <c r="BH8">
-        <v>50</v>
-      </c>
-      <c r="BI8">
-        <v>94</v>
-      </c>
-      <c r="BJ8">
-        <v>100</v>
-      </c>
-      <c r="BK8">
-        <v>95</v>
-      </c>
       <c r="BL8">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="BM8">
         <v>100</v>
       </c>
       <c r="BN8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO8">
         <v>100</v>
@@ -2589,40 +2634,40 @@
         <v>100</v>
       </c>
       <c r="BR8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BS8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BT8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BU8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BV8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BW8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BX8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BY8">
-        <v>485</v>
+        <v>554.66</v>
       </c>
       <c r="BZ8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="CA8">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="CB8">
-        <v>97</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="CC8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:81">
@@ -2630,16 +2675,16 @@
         <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -2648,226 +2693,226 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J9">
+        <v>7.5</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>7.5</v>
+      </c>
+      <c r="N9">
+        <v>23</v>
+      </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>21</v>
+      </c>
+      <c r="R9">
+        <v>25</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>22</v>
+      </c>
+      <c r="U9">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>25</v>
+      </c>
+      <c r="X9">
+        <v>25</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>25</v>
+      </c>
+      <c r="AA9">
+        <v>25</v>
+      </c>
+      <c r="AB9">
+        <v>7.5</v>
+      </c>
+      <c r="AC9">
+        <v>25</v>
+      </c>
+      <c r="AD9">
+        <v>25</v>
+      </c>
+      <c r="AE9">
+        <v>7.5</v>
+      </c>
+      <c r="AF9">
+        <v>24</v>
+      </c>
+      <c r="AG9">
+        <v>25</v>
+      </c>
+      <c r="AH9">
+        <v>7</v>
+      </c>
+      <c r="AI9">
+        <v>22</v>
+      </c>
+      <c r="AJ9">
+        <v>25</v>
+      </c>
+      <c r="AK9">
+        <v>7</v>
+      </c>
+      <c r="AL9">
+        <v>18</v>
+      </c>
+      <c r="AM9">
+        <v>25</v>
+      </c>
+      <c r="AN9">
+        <v>7</v>
+      </c>
+      <c r="AO9">
+        <v>50</v>
+      </c>
+      <c r="AP9">
+        <v>50</v>
+      </c>
+      <c r="AQ9">
+        <v>15</v>
+      </c>
+      <c r="AR9">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AS9">
+        <v>50</v>
+      </c>
+      <c r="AT9">
+        <v>15</v>
+      </c>
+      <c r="AU9">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AV9">
+        <v>50</v>
+      </c>
+      <c r="AW9">
+        <v>15</v>
+      </c>
+      <c r="AX9">
+        <v>42.5</v>
+      </c>
+      <c r="AY9">
+        <v>50</v>
+      </c>
+      <c r="AZ9">
+        <v>15</v>
+      </c>
+      <c r="BA9">
+        <v>48</v>
+      </c>
+      <c r="BB9">
+        <v>50</v>
+      </c>
+      <c r="BC9">
+        <v>15</v>
+      </c>
+      <c r="BD9">
+        <v>39</v>
+      </c>
+      <c r="BE9">
+        <v>50</v>
+      </c>
+      <c r="BF9">
+        <v>15</v>
+      </c>
+      <c r="BG9">
+        <v>100</v>
+      </c>
+      <c r="BH9">
+        <v>98.33</v>
+      </c>
+      <c r="BI9">
+        <v>98.33</v>
+      </c>
+      <c r="BJ9">
+        <v>89.5</v>
+      </c>
+      <c r="BK9">
+        <v>91</v>
+      </c>
+      <c r="BL9">
+        <v>79</v>
+      </c>
+      <c r="BM9">
+        <v>100</v>
+      </c>
+      <c r="BN9">
+        <v>100</v>
+      </c>
+      <c r="BO9">
+        <v>100</v>
+      </c>
+      <c r="BP9">
+        <v>100</v>
+      </c>
+      <c r="BQ9">
+        <v>100</v>
+      </c>
+      <c r="BR9">
+        <v>100</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY9">
+        <v>556.16</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA9">
+        <v>600</v>
+      </c>
+      <c r="CB9">
+        <v>92.69333333333333</v>
+      </c>
+      <c r="CC9">
         <v>3</v>
-      </c>
-      <c r="K9">
-        <v>4.5</v>
-      </c>
-      <c r="L9">
-        <v>25</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>25</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>16</v>
-      </c>
-      <c r="R9">
-        <v>25</v>
-      </c>
-      <c r="S9">
-        <v>7</v>
-      </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
-      <c r="U9">
-        <v>10</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="W9">
-        <v>20</v>
-      </c>
-      <c r="X9">
-        <v>25</v>
-      </c>
-      <c r="Y9">
-        <v>7</v>
-      </c>
-      <c r="Z9">
-        <v>4</v>
-      </c>
-      <c r="AA9">
-        <v>10</v>
-      </c>
-      <c r="AB9">
-        <v>3</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>25</v>
-      </c>
-      <c r="AE9">
-        <v>7</v>
-      </c>
-      <c r="AF9">
-        <v>21</v>
-      </c>
-      <c r="AG9">
-        <v>25</v>
-      </c>
-      <c r="AH9">
-        <v>7</v>
-      </c>
-      <c r="AI9">
-        <v>12</v>
-      </c>
-      <c r="AJ9">
-        <v>25</v>
-      </c>
-      <c r="AK9">
-        <v>7</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>10</v>
-      </c>
-      <c r="AN9">
-        <v>3</v>
-      </c>
-      <c r="AO9">
-        <v>29.5</v>
-      </c>
-      <c r="AP9">
-        <v>50</v>
-      </c>
-      <c r="AQ9">
-        <v>15</v>
-      </c>
-      <c r="AR9">
-        <v>24</v>
-      </c>
-      <c r="AS9">
-        <v>30</v>
-      </c>
-      <c r="AT9">
-        <v>9</v>
-      </c>
-      <c r="AU9">
-        <v>12.5</v>
-      </c>
-      <c r="AV9">
-        <v>50</v>
-      </c>
-      <c r="AW9">
-        <v>15</v>
-      </c>
-      <c r="AX9">
-        <v>50</v>
-      </c>
-      <c r="AY9">
-        <v>50</v>
-      </c>
-      <c r="AZ9">
-        <v>15</v>
-      </c>
-      <c r="BA9">
-        <v>32</v>
-      </c>
-      <c r="BB9">
-        <v>50</v>
-      </c>
-      <c r="BC9">
-        <v>15</v>
-      </c>
-      <c r="BD9">
-        <v>19</v>
-      </c>
-      <c r="BE9">
-        <v>30</v>
-      </c>
-      <c r="BF9">
-        <v>9</v>
-      </c>
-      <c r="BG9">
-        <v>68.5</v>
-      </c>
-      <c r="BH9">
-        <v>36</v>
-      </c>
-      <c r="BI9">
-        <v>17</v>
-      </c>
-      <c r="BJ9">
-        <v>96</v>
-      </c>
-      <c r="BK9">
-        <v>60</v>
-      </c>
-      <c r="BL9">
-        <v>25</v>
-      </c>
-      <c r="BM9">
-        <v>100</v>
-      </c>
-      <c r="BN9">
-        <v>50</v>
-      </c>
-      <c r="BO9">
-        <v>100</v>
-      </c>
-      <c r="BP9">
-        <v>100</v>
-      </c>
-      <c r="BQ9">
-        <v>100</v>
-      </c>
-      <c r="BR9">
-        <v>50</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY9">
-        <v>302.5</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>94</v>
-      </c>
-      <c r="CA9">
-        <v>500</v>
-      </c>
-      <c r="CB9">
-        <v>60.5</v>
-      </c>
-      <c r="CC9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -2875,16 +2920,16 @@
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -2893,25 +2938,25 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K10">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="L10">
         <v>25</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>25</v>
+        <v>20.5</v>
       </c>
       <c r="O10">
         <v>25</v>
@@ -2920,53 +2965,53 @@
         <v>7</v>
       </c>
       <c r="Q10">
+        <v>21</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>15</v>
+      </c>
+      <c r="X10">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>22.5</v>
+      </c>
+      <c r="AA10">
+        <v>25</v>
+      </c>
+      <c r="AB10">
+        <v>7.5</v>
+      </c>
+      <c r="AC10">
+        <v>25</v>
+      </c>
+      <c r="AD10">
+        <v>25</v>
+      </c>
+      <c r="AE10">
+        <v>7.5</v>
+      </c>
+      <c r="AF10">
         <v>19</v>
       </c>
-      <c r="R10">
-        <v>25</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <v>10</v>
-      </c>
-      <c r="V10">
-        <v>3</v>
-      </c>
-      <c r="W10">
-        <v>21</v>
-      </c>
-      <c r="X10">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>7</v>
-      </c>
-      <c r="Z10">
-        <v>7</v>
-      </c>
-      <c r="AA10">
-        <v>10</v>
-      </c>
-      <c r="AB10">
-        <v>3</v>
-      </c>
-      <c r="AC10">
-        <v>11</v>
-      </c>
-      <c r="AD10">
-        <v>25</v>
-      </c>
-      <c r="AE10">
-        <v>7</v>
-      </c>
-      <c r="AF10">
-        <v>20</v>
-      </c>
       <c r="AG10">
         <v>25</v>
       </c>
@@ -2974,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="AI10">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ10">
         <v>25</v>
@@ -2983,16 +3028,16 @@
         <v>7</v>
       </c>
       <c r="AL10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AM10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO10">
-        <v>37.5</v>
+        <v>29</v>
       </c>
       <c r="AP10">
         <v>50</v>
@@ -3001,16 +3046,16 @@
         <v>15</v>
       </c>
       <c r="AR10">
-        <v>22</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="AS10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AU10">
-        <v>31</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AV10">
         <v>50</v>
@@ -3019,7 +3064,7 @@
         <v>15</v>
       </c>
       <c r="AX10">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AY10">
         <v>50</v>
@@ -3028,7 +3073,7 @@
         <v>15</v>
       </c>
       <c r="BA10">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="BB10">
         <v>50</v>
@@ -3040,34 +3085,34 @@
         <v>25</v>
       </c>
       <c r="BE10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BF10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BG10">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BH10">
-        <v>37</v>
+        <v>89.17</v>
       </c>
       <c r="BI10">
-        <v>51.5</v>
+        <v>98.33</v>
       </c>
       <c r="BJ10">
-        <v>91</v>
+        <v>63.5</v>
       </c>
       <c r="BK10">
-        <v>79</v>
+        <v>65.5</v>
       </c>
       <c r="BL10">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="BM10">
         <v>100</v>
       </c>
       <c r="BN10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO10">
         <v>100</v>
@@ -3079,40 +3124,40 @@
         <v>100</v>
       </c>
       <c r="BR10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BS10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BT10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BU10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BV10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BW10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BX10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="BY10">
-        <v>375.5</v>
+        <v>440.5</v>
       </c>
       <c r="BZ10" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="CA10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="CB10">
-        <v>75.09999999999999</v>
+        <v>73.41666666666666</v>
       </c>
       <c r="CC10">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -3120,16 +3165,16 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -3138,226 +3183,226 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>7.5</v>
+      </c>
+      <c r="N11">
+        <v>16.5</v>
+      </c>
+      <c r="O11">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>17</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>21</v>
+      </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>25</v>
+      </c>
+      <c r="AA11">
+        <v>25</v>
+      </c>
+      <c r="AB11">
+        <v>7.5</v>
+      </c>
+      <c r="AC11">
+        <v>22.5</v>
+      </c>
+      <c r="AD11">
+        <v>25</v>
+      </c>
+      <c r="AE11">
+        <v>7.5</v>
+      </c>
+      <c r="AF11">
+        <v>23</v>
+      </c>
+      <c r="AG11">
+        <v>25</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>23</v>
+      </c>
+      <c r="AJ11">
+        <v>25</v>
+      </c>
+      <c r="AK11">
+        <v>7</v>
+      </c>
+      <c r="AL11">
+        <v>20</v>
+      </c>
+      <c r="AM11">
+        <v>25</v>
+      </c>
+      <c r="AN11">
+        <v>7</v>
+      </c>
+      <c r="AO11">
+        <v>50</v>
+      </c>
+      <c r="AP11">
+        <v>50</v>
+      </c>
+      <c r="AQ11">
+        <v>15</v>
+      </c>
+      <c r="AR11">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AS11">
+        <v>50</v>
+      </c>
+      <c r="AT11">
+        <v>15</v>
+      </c>
+      <c r="AU11">
+        <v>50</v>
+      </c>
+      <c r="AV11">
+        <v>50</v>
+      </c>
+      <c r="AW11">
+        <v>15</v>
+      </c>
+      <c r="AX11">
+        <v>29</v>
+      </c>
+      <c r="AY11">
+        <v>50</v>
+      </c>
+      <c r="AZ11">
+        <v>15</v>
+      </c>
+      <c r="BA11">
+        <v>48</v>
+      </c>
+      <c r="BB11">
+        <v>50</v>
+      </c>
+      <c r="BC11">
+        <v>15</v>
+      </c>
+      <c r="BD11">
+        <v>47</v>
+      </c>
+      <c r="BE11">
+        <v>50</v>
+      </c>
+      <c r="BF11">
+        <v>15</v>
+      </c>
+      <c r="BG11">
+        <v>96</v>
+      </c>
+      <c r="BH11">
+        <v>88.33</v>
+      </c>
+      <c r="BI11">
+        <v>97.5</v>
+      </c>
+      <c r="BJ11">
+        <v>68.5</v>
+      </c>
+      <c r="BK11">
+        <v>95</v>
+      </c>
+      <c r="BL11">
+        <v>84</v>
+      </c>
+      <c r="BM11">
+        <v>100</v>
+      </c>
+      <c r="BN11">
+        <v>100</v>
+      </c>
+      <c r="BO11">
+        <v>100</v>
+      </c>
+      <c r="BP11">
+        <v>100</v>
+      </c>
+      <c r="BQ11">
+        <v>100</v>
+      </c>
+      <c r="BR11">
+        <v>100</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY11">
+        <v>529.3299999999999</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA11">
+        <v>600</v>
+      </c>
+      <c r="CB11">
+        <v>88.22166666666665</v>
+      </c>
+      <c r="CC11">
         <v>9</v>
-      </c>
-      <c r="L11">
-        <v>25</v>
-      </c>
-      <c r="M11">
-        <v>7</v>
-      </c>
-      <c r="N11">
-        <v>21</v>
-      </c>
-      <c r="O11">
-        <v>25</v>
-      </c>
-      <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <v>17</v>
-      </c>
-      <c r="R11">
-        <v>25</v>
-      </c>
-      <c r="S11">
-        <v>7</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>19</v>
-      </c>
-      <c r="X11">
-        <v>25</v>
-      </c>
-      <c r="Y11">
-        <v>7</v>
-      </c>
-      <c r="Z11">
-        <v>6</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
-      </c>
-      <c r="AB11">
-        <v>3</v>
-      </c>
-      <c r="AC11">
-        <v>7.5</v>
-      </c>
-      <c r="AD11">
-        <v>25</v>
-      </c>
-      <c r="AE11">
-        <v>7</v>
-      </c>
-      <c r="AF11">
-        <v>24</v>
-      </c>
-      <c r="AG11">
-        <v>25</v>
-      </c>
-      <c r="AH11">
-        <v>7</v>
-      </c>
-      <c r="AI11">
-        <v>20</v>
-      </c>
-      <c r="AJ11">
-        <v>25</v>
-      </c>
-      <c r="AK11">
-        <v>7</v>
-      </c>
-      <c r="AL11">
-        <v>5</v>
-      </c>
-      <c r="AM11">
-        <v>10</v>
-      </c>
-      <c r="AN11">
-        <v>3</v>
-      </c>
-      <c r="AO11">
-        <v>31</v>
-      </c>
-      <c r="AP11">
-        <v>50</v>
-      </c>
-      <c r="AQ11">
-        <v>15</v>
-      </c>
-      <c r="AR11">
-        <v>16</v>
-      </c>
-      <c r="AS11">
-        <v>30</v>
-      </c>
-      <c r="AT11">
-        <v>9</v>
-      </c>
-      <c r="AU11">
-        <v>12</v>
-      </c>
-      <c r="AV11">
-        <v>50</v>
-      </c>
-      <c r="AW11">
-        <v>15</v>
-      </c>
-      <c r="AX11">
-        <v>40</v>
-      </c>
-      <c r="AY11">
-        <v>50</v>
-      </c>
-      <c r="AZ11">
-        <v>15</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>50</v>
-      </c>
-      <c r="BC11">
-        <v>15</v>
-      </c>
-      <c r="BD11">
-        <v>16</v>
-      </c>
-      <c r="BE11">
-        <v>30</v>
-      </c>
-      <c r="BF11">
-        <v>9</v>
-      </c>
-      <c r="BG11">
-        <v>61</v>
-      </c>
-      <c r="BH11">
-        <v>28</v>
-      </c>
-      <c r="BI11">
-        <v>28.5</v>
-      </c>
-      <c r="BJ11">
-        <v>85</v>
-      </c>
-      <c r="BK11">
-        <v>37</v>
-      </c>
-      <c r="BL11">
-        <v>29</v>
-      </c>
-      <c r="BM11">
-        <v>100</v>
-      </c>
-      <c r="BN11">
-        <v>50</v>
-      </c>
-      <c r="BO11">
-        <v>100</v>
-      </c>
-      <c r="BP11">
-        <v>100</v>
-      </c>
-      <c r="BQ11">
-        <v>100</v>
-      </c>
-      <c r="BR11">
-        <v>50</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY11">
-        <v>268.5</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>94</v>
-      </c>
-      <c r="CA11">
-        <v>500</v>
-      </c>
-      <c r="CB11">
-        <v>53.7</v>
-      </c>
-      <c r="CC11">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:81">
@@ -3365,244 +3410,3919 @@
         <v>91</v>
       </c>
       <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>7.5</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>7.5</v>
+      </c>
+      <c r="N12">
+        <v>21</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>17</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>25</v>
+      </c>
+      <c r="X12">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>25</v>
+      </c>
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <v>7.5</v>
+      </c>
+      <c r="AC12">
+        <v>25</v>
+      </c>
+      <c r="AD12">
+        <v>25</v>
+      </c>
+      <c r="AE12">
+        <v>7.5</v>
+      </c>
+      <c r="AF12">
+        <v>16.5</v>
+      </c>
+      <c r="AG12">
+        <v>25</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>22</v>
+      </c>
+      <c r="AJ12">
+        <v>25</v>
+      </c>
+      <c r="AK12">
+        <v>7</v>
+      </c>
+      <c r="AL12">
+        <v>19</v>
+      </c>
+      <c r="AM12">
+        <v>25</v>
+      </c>
+      <c r="AN12">
+        <v>7</v>
+      </c>
+      <c r="AO12">
+        <v>44</v>
+      </c>
+      <c r="AP12">
+        <v>50</v>
+      </c>
+      <c r="AQ12">
+        <v>15</v>
+      </c>
+      <c r="AR12">
+        <v>35</v>
+      </c>
+      <c r="AS12">
+        <v>50</v>
+      </c>
+      <c r="AT12">
+        <v>15</v>
+      </c>
+      <c r="AU12">
+        <v>50</v>
+      </c>
+      <c r="AV12">
+        <v>50</v>
+      </c>
+      <c r="AW12">
+        <v>15</v>
+      </c>
+      <c r="AX12">
+        <v>33</v>
+      </c>
+      <c r="AY12">
+        <v>50</v>
+      </c>
+      <c r="AZ12">
+        <v>15</v>
+      </c>
+      <c r="BA12">
+        <v>45</v>
+      </c>
+      <c r="BB12">
+        <v>50</v>
+      </c>
+      <c r="BC12">
+        <v>15</v>
+      </c>
+      <c r="BD12">
+        <v>35</v>
+      </c>
+      <c r="BE12">
+        <v>50</v>
+      </c>
+      <c r="BF12">
+        <v>15</v>
+      </c>
+      <c r="BG12">
+        <v>89</v>
+      </c>
+      <c r="BH12">
+        <v>80</v>
+      </c>
+      <c r="BI12">
+        <v>100</v>
+      </c>
+      <c r="BJ12">
+        <v>70.5</v>
+      </c>
+      <c r="BK12">
+        <v>91</v>
+      </c>
+      <c r="BL12">
+        <v>71</v>
+      </c>
+      <c r="BM12">
+        <v>100</v>
+      </c>
+      <c r="BN12">
+        <v>100</v>
+      </c>
+      <c r="BO12">
+        <v>100</v>
+      </c>
+      <c r="BP12">
+        <v>100</v>
+      </c>
+      <c r="BQ12">
+        <v>100</v>
+      </c>
+      <c r="BR12">
+        <v>100</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY12">
+        <v>501.5</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA12">
+        <v>600</v>
+      </c>
+      <c r="CB12">
+        <v>83.58333333333333</v>
+      </c>
+      <c r="CC12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81">
+      <c r="A13" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>7.5</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>7.5</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>14.5</v>
+      </c>
+      <c r="R13">
+        <v>25</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>14.5</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <v>20</v>
+      </c>
+      <c r="AA13">
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <v>7.5</v>
+      </c>
+      <c r="AC13">
+        <v>12.5</v>
+      </c>
+      <c r="AD13">
+        <v>25</v>
+      </c>
+      <c r="AE13">
+        <v>7.5</v>
+      </c>
+      <c r="AF13">
+        <v>14</v>
+      </c>
+      <c r="AG13">
+        <v>25</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>18</v>
+      </c>
+      <c r="AJ13">
+        <v>25</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13">
+        <v>9</v>
+      </c>
+      <c r="AM13">
+        <v>25</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
+        <v>12</v>
+      </c>
+      <c r="AP13">
+        <v>50</v>
+      </c>
+      <c r="AQ13">
+        <v>15</v>
+      </c>
+      <c r="AR13">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AS13">
+        <v>50</v>
+      </c>
+      <c r="AT13">
+        <v>15</v>
+      </c>
+      <c r="AU13">
+        <v>10</v>
+      </c>
+      <c r="AV13">
+        <v>50</v>
+      </c>
+      <c r="AW13">
+        <v>15</v>
+      </c>
+      <c r="AX13">
+        <v>15</v>
+      </c>
+      <c r="AY13">
+        <v>50</v>
+      </c>
+      <c r="AZ13">
+        <v>15</v>
+      </c>
+      <c r="BA13">
+        <v>22.5</v>
+      </c>
+      <c r="BB13">
+        <v>50</v>
+      </c>
+      <c r="BC13">
+        <v>15</v>
+      </c>
+      <c r="BD13">
+        <v>27</v>
+      </c>
+      <c r="BE13">
+        <v>50</v>
+      </c>
+      <c r="BF13">
+        <v>15</v>
+      </c>
+      <c r="BG13">
+        <v>35</v>
+      </c>
+      <c r="BH13">
+        <v>81.67</v>
+      </c>
+      <c r="BI13">
+        <v>37.5</v>
+      </c>
+      <c r="BJ13">
+        <v>46</v>
+      </c>
+      <c r="BK13">
+        <v>55</v>
+      </c>
+      <c r="BL13">
+        <v>50.5</v>
+      </c>
+      <c r="BM13">
+        <v>100</v>
+      </c>
+      <c r="BN13">
+        <v>100</v>
+      </c>
+      <c r="BO13">
+        <v>100</v>
+      </c>
+      <c r="BP13">
+        <v>100</v>
+      </c>
+      <c r="BQ13">
+        <v>100</v>
+      </c>
+      <c r="BR13">
+        <v>100</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY13">
+        <v>305.67</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA13">
+        <v>600</v>
+      </c>
+      <c r="CB13">
+        <v>50.94500000000001</v>
+      </c>
+      <c r="CC13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81">
+      <c r="A14" t="s">
         <v>93</v>
       </c>
-      <c r="D12">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>7.5</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>7.5</v>
+      </c>
+      <c r="N14">
+        <v>16</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>17</v>
+      </c>
+      <c r="X14">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>20</v>
+      </c>
+      <c r="AA14">
+        <v>25</v>
+      </c>
+      <c r="AB14">
+        <v>7.5</v>
+      </c>
+      <c r="AC14">
+        <v>25</v>
+      </c>
+      <c r="AD14">
+        <v>25</v>
+      </c>
+      <c r="AE14">
+        <v>7.5</v>
+      </c>
+      <c r="AF14">
+        <v>10.5</v>
+      </c>
+      <c r="AG14">
+        <v>25</v>
+      </c>
+      <c r="AH14">
+        <v>7</v>
+      </c>
+      <c r="AI14">
+        <v>23</v>
+      </c>
+      <c r="AJ14">
+        <v>25</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
+        <v>16</v>
+      </c>
+      <c r="AM14">
+        <v>25</v>
+      </c>
+      <c r="AN14">
+        <v>7</v>
+      </c>
+      <c r="AO14">
+        <v>39</v>
+      </c>
+      <c r="AP14">
+        <v>50</v>
+      </c>
+      <c r="AQ14">
+        <v>15</v>
+      </c>
+      <c r="AR14">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="AS14">
+        <v>50</v>
+      </c>
+      <c r="AT14">
+        <v>15</v>
+      </c>
+      <c r="AU14">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="AV14">
+        <v>50</v>
+      </c>
+      <c r="AW14">
+        <v>15</v>
+      </c>
+      <c r="AX14">
+        <v>20</v>
+      </c>
+      <c r="AY14">
+        <v>50</v>
+      </c>
+      <c r="AZ14">
+        <v>15</v>
+      </c>
+      <c r="BA14">
+        <v>37</v>
+      </c>
+      <c r="BB14">
+        <v>50</v>
+      </c>
+      <c r="BC14">
+        <v>15</v>
+      </c>
+      <c r="BD14">
+        <v>40</v>
+      </c>
+      <c r="BE14">
+        <v>50</v>
+      </c>
+      <c r="BF14">
+        <v>15</v>
+      </c>
+      <c r="BG14">
+        <v>71</v>
+      </c>
+      <c r="BH14">
+        <v>83.33</v>
+      </c>
+      <c r="BI14">
+        <v>91.67</v>
+      </c>
+      <c r="BJ14">
+        <v>46.5</v>
+      </c>
+      <c r="BK14">
+        <v>77</v>
+      </c>
+      <c r="BL14">
+        <v>69</v>
+      </c>
+      <c r="BM14">
+        <v>100</v>
+      </c>
+      <c r="BN14">
+        <v>100</v>
+      </c>
+      <c r="BO14">
+        <v>100</v>
+      </c>
+      <c r="BP14">
+        <v>100</v>
+      </c>
+      <c r="BQ14">
+        <v>100</v>
+      </c>
+      <c r="BR14">
+        <v>100</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY14">
+        <v>438.5</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA14">
+        <v>600</v>
+      </c>
+      <c r="CB14">
+        <v>73.08333333333333</v>
+      </c>
+      <c r="CC14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>7.5</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>7.5</v>
+      </c>
+      <c r="N15">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+      <c r="R15">
+        <v>25</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>17</v>
+      </c>
+      <c r="U15">
+        <v>25</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>24</v>
+      </c>
+      <c r="X15">
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>25</v>
+      </c>
+      <c r="AA15">
+        <v>25</v>
+      </c>
+      <c r="AB15">
+        <v>7.5</v>
+      </c>
+      <c r="AC15">
+        <v>25</v>
+      </c>
+      <c r="AD15">
+        <v>25</v>
+      </c>
+      <c r="AE15">
+        <v>7.5</v>
+      </c>
+      <c r="AF15">
+        <v>23</v>
+      </c>
+      <c r="AG15">
+        <v>25</v>
+      </c>
+      <c r="AH15">
+        <v>7</v>
+      </c>
+      <c r="AI15">
+        <v>25</v>
+      </c>
+      <c r="AJ15">
+        <v>25</v>
+      </c>
+      <c r="AK15">
+        <v>7</v>
+      </c>
+      <c r="AL15">
+        <v>19</v>
+      </c>
+      <c r="AM15">
+        <v>25</v>
+      </c>
+      <c r="AN15">
+        <v>7</v>
+      </c>
+      <c r="AO15">
+        <v>48</v>
+      </c>
+      <c r="AP15">
+        <v>50</v>
+      </c>
+      <c r="AQ15">
+        <v>15</v>
+      </c>
+      <c r="AR15">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AS15">
+        <v>50</v>
+      </c>
+      <c r="AT15">
+        <v>15</v>
+      </c>
+      <c r="AU15">
+        <v>50</v>
+      </c>
+      <c r="AV15">
+        <v>50</v>
+      </c>
+      <c r="AW15">
+        <v>15</v>
+      </c>
+      <c r="AX15">
+        <v>37</v>
+      </c>
+      <c r="AY15">
+        <v>50</v>
+      </c>
+      <c r="AZ15">
+        <v>15</v>
+      </c>
+      <c r="BA15">
+        <v>45</v>
+      </c>
+      <c r="BB15">
+        <v>50</v>
+      </c>
+      <c r="BC15">
+        <v>15</v>
+      </c>
+      <c r="BD15">
+        <v>41</v>
+      </c>
+      <c r="BE15">
+        <v>50</v>
+      </c>
+      <c r="BF15">
+        <v>15</v>
+      </c>
+      <c r="BG15">
+        <v>82</v>
+      </c>
+      <c r="BH15">
+        <v>98.33</v>
+      </c>
+      <c r="BI15">
+        <v>100</v>
+      </c>
+      <c r="BJ15">
+        <v>81</v>
+      </c>
+      <c r="BK15">
+        <v>95</v>
+      </c>
+      <c r="BL15">
+        <v>77</v>
+      </c>
+      <c r="BM15">
+        <v>100</v>
+      </c>
+      <c r="BN15">
+        <v>100</v>
+      </c>
+      <c r="BO15">
+        <v>100</v>
+      </c>
+      <c r="BP15">
+        <v>100</v>
+      </c>
+      <c r="BQ15">
+        <v>100</v>
+      </c>
+      <c r="BR15">
+        <v>100</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY15">
+        <v>533.3299999999999</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA15">
+        <v>600</v>
+      </c>
+      <c r="CB15">
+        <v>88.88833333333332</v>
+      </c>
+      <c r="CC15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>7.5</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>7.5</v>
+      </c>
+      <c r="N16">
+        <v>13.5</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>25</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>25</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>25</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>25</v>
+      </c>
+      <c r="AB16">
+        <v>7.5</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>25</v>
+      </c>
+      <c r="AE16">
+        <v>7.5</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>25</v>
+      </c>
+      <c r="AH16">
+        <v>7</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>25</v>
+      </c>
+      <c r="AK16">
+        <v>7</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>25</v>
+      </c>
+      <c r="AN16">
+        <v>7</v>
+      </c>
+      <c r="AO16">
+        <v>50</v>
+      </c>
+      <c r="AP16">
+        <v>50</v>
+      </c>
+      <c r="AQ16">
+        <v>15</v>
+      </c>
+      <c r="AR16">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AS16">
+        <v>50</v>
+      </c>
+      <c r="AT16">
+        <v>15</v>
+      </c>
+      <c r="AU16">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AV16">
+        <v>50</v>
+      </c>
+      <c r="AW16">
+        <v>15</v>
+      </c>
+      <c r="AX16">
+        <v>43</v>
+      </c>
+      <c r="AY16">
+        <v>50</v>
+      </c>
+      <c r="AZ16">
+        <v>15</v>
+      </c>
+      <c r="BA16">
+        <v>37</v>
+      </c>
+      <c r="BB16">
+        <v>50</v>
+      </c>
+      <c r="BC16">
+        <v>15</v>
+      </c>
+      <c r="BD16">
+        <v>37</v>
+      </c>
+      <c r="BE16">
+        <v>50</v>
+      </c>
+      <c r="BF16">
+        <v>15</v>
+      </c>
+      <c r="BG16">
+        <v>75</v>
+      </c>
+      <c r="BH16">
+        <v>73.33</v>
+      </c>
+      <c r="BI16">
+        <v>71.67</v>
+      </c>
+      <c r="BJ16">
+        <v>56.5</v>
+      </c>
+      <c r="BK16">
+        <v>57</v>
+      </c>
+      <c r="BL16">
+        <v>51</v>
+      </c>
+      <c r="BM16">
+        <v>100</v>
+      </c>
+      <c r="BN16">
+        <v>100</v>
+      </c>
+      <c r="BO16">
+        <v>100</v>
+      </c>
+      <c r="BP16">
+        <v>100</v>
+      </c>
+      <c r="BQ16">
+        <v>100</v>
+      </c>
+      <c r="BR16">
+        <v>100</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY16">
+        <v>384.5</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA16">
+        <v>600</v>
+      </c>
+      <c r="CB16">
+        <v>64.08333333333334</v>
+      </c>
+      <c r="CC16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>7.5</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>7.5</v>
+      </c>
+      <c r="N17">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>19</v>
+      </c>
+      <c r="R17">
+        <v>25</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>13</v>
+      </c>
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>25</v>
+      </c>
+      <c r="X17">
+        <v>25</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>25</v>
+      </c>
+      <c r="AA17">
+        <v>25</v>
+      </c>
+      <c r="AB17">
+        <v>7.5</v>
+      </c>
+      <c r="AC17">
+        <v>25</v>
+      </c>
+      <c r="AD17">
+        <v>25</v>
+      </c>
+      <c r="AE17">
+        <v>7.5</v>
+      </c>
+      <c r="AF17">
+        <v>21</v>
+      </c>
+      <c r="AG17">
+        <v>25</v>
+      </c>
+      <c r="AH17">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>25</v>
+      </c>
+      <c r="AJ17">
+        <v>25</v>
+      </c>
+      <c r="AK17">
+        <v>7</v>
+      </c>
+      <c r="AL17">
+        <v>20</v>
+      </c>
+      <c r="AM17">
+        <v>25</v>
+      </c>
+      <c r="AN17">
+        <v>7</v>
+      </c>
+      <c r="AO17">
+        <v>49</v>
+      </c>
+      <c r="AP17">
+        <v>50</v>
+      </c>
+      <c r="AQ17">
+        <v>15</v>
+      </c>
+      <c r="AR17">
+        <v>50</v>
+      </c>
+      <c r="AS17">
+        <v>50</v>
+      </c>
+      <c r="AT17">
+        <v>15</v>
+      </c>
+      <c r="AU17">
+        <v>50</v>
+      </c>
+      <c r="AV17">
+        <v>50</v>
+      </c>
+      <c r="AW17">
+        <v>15</v>
+      </c>
+      <c r="AX17">
+        <v>40</v>
+      </c>
+      <c r="AY17">
+        <v>50</v>
+      </c>
+      <c r="AZ17">
+        <v>15</v>
+      </c>
+      <c r="BA17">
+        <v>40</v>
+      </c>
+      <c r="BB17">
+        <v>50</v>
+      </c>
+      <c r="BC17">
+        <v>15</v>
+      </c>
+      <c r="BD17">
+        <v>35</v>
+      </c>
+      <c r="BE17">
+        <v>50</v>
+      </c>
+      <c r="BF17">
+        <v>15</v>
+      </c>
+      <c r="BG17">
+        <v>99</v>
+      </c>
+      <c r="BH17">
+        <v>100</v>
+      </c>
+      <c r="BI17">
+        <v>100</v>
+      </c>
+      <c r="BJ17">
+        <v>80</v>
+      </c>
+      <c r="BK17">
+        <v>84</v>
+      </c>
+      <c r="BL17">
+        <v>68</v>
+      </c>
+      <c r="BM17">
+        <v>100</v>
+      </c>
+      <c r="BN17">
+        <v>100</v>
+      </c>
+      <c r="BO17">
+        <v>100</v>
+      </c>
+      <c r="BP17">
+        <v>100</v>
+      </c>
+      <c r="BQ17">
+        <v>100</v>
+      </c>
+      <c r="BR17">
+        <v>100</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY17">
+        <v>531</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA17">
+        <v>600</v>
+      </c>
+      <c r="CB17">
+        <v>88.5</v>
+      </c>
+      <c r="CC17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>7.5</v>
+      </c>
+      <c r="K18">
+        <v>17.5</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>7.5</v>
+      </c>
+      <c r="N18">
+        <v>17.5</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>25</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>13</v>
+      </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>18</v>
+      </c>
+      <c r="X18">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>22.5</v>
+      </c>
+      <c r="AA18">
+        <v>25</v>
+      </c>
+      <c r="AB18">
+        <v>7.5</v>
+      </c>
+      <c r="AC18">
+        <v>17.5</v>
+      </c>
+      <c r="AD18">
+        <v>25</v>
+      </c>
+      <c r="AE18">
+        <v>7.5</v>
+      </c>
+      <c r="AF18">
+        <v>19</v>
+      </c>
+      <c r="AG18">
+        <v>25</v>
+      </c>
+      <c r="AH18">
+        <v>7</v>
+      </c>
+      <c r="AI18">
+        <v>20</v>
+      </c>
+      <c r="AJ18">
+        <v>25</v>
+      </c>
+      <c r="AK18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>18</v>
+      </c>
+      <c r="AM18">
+        <v>25</v>
+      </c>
+      <c r="AN18">
+        <v>7</v>
+      </c>
+      <c r="AO18">
+        <v>31</v>
+      </c>
+      <c r="AP18">
+        <v>50</v>
+      </c>
+      <c r="AQ18">
+        <v>15</v>
+      </c>
+      <c r="AR18">
+        <v>45</v>
+      </c>
+      <c r="AS18">
+        <v>50</v>
+      </c>
+      <c r="AT18">
+        <v>15</v>
+      </c>
+      <c r="AU18">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="AV18">
+        <v>50</v>
+      </c>
+      <c r="AW18">
+        <v>15</v>
+      </c>
+      <c r="AX18">
+        <v>37.5</v>
+      </c>
+      <c r="AY18">
+        <v>50</v>
+      </c>
+      <c r="AZ18">
+        <v>15</v>
+      </c>
+      <c r="BA18">
+        <v>35</v>
+      </c>
+      <c r="BB18">
+        <v>50</v>
+      </c>
+      <c r="BC18">
+        <v>15</v>
+      </c>
+      <c r="BD18">
+        <v>41</v>
+      </c>
+      <c r="BE18">
+        <v>50</v>
+      </c>
+      <c r="BF18">
+        <v>15</v>
+      </c>
+      <c r="BG18">
+        <v>74</v>
+      </c>
+      <c r="BH18">
+        <v>87.5</v>
+      </c>
+      <c r="BI18">
+        <v>58.33</v>
+      </c>
+      <c r="BJ18">
+        <v>74</v>
+      </c>
+      <c r="BK18">
+        <v>67</v>
+      </c>
+      <c r="BL18">
+        <v>72</v>
+      </c>
+      <c r="BM18">
+        <v>100</v>
+      </c>
+      <c r="BN18">
+        <v>100</v>
+      </c>
+      <c r="BO18">
+        <v>100</v>
+      </c>
+      <c r="BP18">
+        <v>100</v>
+      </c>
+      <c r="BQ18">
+        <v>100</v>
+      </c>
+      <c r="BR18">
+        <v>100</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY18">
+        <v>432.83</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA18">
+        <v>600</v>
+      </c>
+      <c r="CB18">
+        <v>72.13833333333332</v>
+      </c>
+      <c r="CC18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:81">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>7.5</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>7.5</v>
+      </c>
+      <c r="N19">
+        <v>19.5</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>24</v>
+      </c>
+      <c r="R19">
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>16</v>
+      </c>
+      <c r="U19">
+        <v>25</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>24</v>
+      </c>
+      <c r="X19">
+        <v>25</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19">
+        <v>22.5</v>
+      </c>
+      <c r="AA19">
+        <v>25</v>
+      </c>
+      <c r="AB19">
+        <v>7.5</v>
+      </c>
+      <c r="AC19">
+        <v>15</v>
+      </c>
+      <c r="AD19">
+        <v>25</v>
+      </c>
+      <c r="AE19">
+        <v>7.5</v>
+      </c>
+      <c r="AF19">
+        <v>18</v>
+      </c>
+      <c r="AG19">
+        <v>25</v>
+      </c>
+      <c r="AH19">
+        <v>7</v>
+      </c>
+      <c r="AI19">
+        <v>22</v>
+      </c>
+      <c r="AJ19">
+        <v>25</v>
+      </c>
+      <c r="AK19">
+        <v>7</v>
+      </c>
+      <c r="AL19">
+        <v>18</v>
+      </c>
+      <c r="AM19">
+        <v>25</v>
+      </c>
+      <c r="AN19">
+        <v>7</v>
+      </c>
+      <c r="AO19">
+        <v>50</v>
+      </c>
+      <c r="AP19">
+        <v>50</v>
+      </c>
+      <c r="AQ19">
+        <v>15</v>
+      </c>
+      <c r="AR19">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AS19">
+        <v>50</v>
+      </c>
+      <c r="AT19">
+        <v>15</v>
+      </c>
+      <c r="AU19">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="AV19">
+        <v>50</v>
+      </c>
+      <c r="AW19">
+        <v>15</v>
+      </c>
+      <c r="AX19">
+        <v>26</v>
+      </c>
+      <c r="AY19">
+        <v>50</v>
+      </c>
+      <c r="AZ19">
+        <v>15</v>
+      </c>
+      <c r="BA19">
+        <v>31.5</v>
+      </c>
+      <c r="BB19">
+        <v>50</v>
+      </c>
+      <c r="BC19">
+        <v>15</v>
+      </c>
+      <c r="BD19">
+        <v>32</v>
+      </c>
+      <c r="BE19">
+        <v>50</v>
+      </c>
+      <c r="BF19">
+        <v>15</v>
+      </c>
+      <c r="BG19">
+        <v>84</v>
+      </c>
+      <c r="BH19">
+        <v>94.17</v>
+      </c>
+      <c r="BI19">
+        <v>76.67</v>
+      </c>
+      <c r="BJ19">
+        <v>63.5</v>
+      </c>
+      <c r="BK19">
+        <v>77.5</v>
+      </c>
+      <c r="BL19">
+        <v>66</v>
+      </c>
+      <c r="BM19">
+        <v>100</v>
+      </c>
+      <c r="BN19">
+        <v>100</v>
+      </c>
+      <c r="BO19">
+        <v>100</v>
+      </c>
+      <c r="BP19">
+        <v>100</v>
+      </c>
+      <c r="BQ19">
+        <v>100</v>
+      </c>
+      <c r="BR19">
+        <v>100</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY19">
+        <v>461.84</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA19">
+        <v>600</v>
+      </c>
+      <c r="CB19">
+        <v>76.97333333333334</v>
+      </c>
+      <c r="CC19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:81">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>17.5</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>7.5</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+      <c r="N20">
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>25</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>25</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20">
+        <v>25</v>
+      </c>
+      <c r="X20">
+        <v>25</v>
+      </c>
+      <c r="Y20">
+        <v>7</v>
+      </c>
+      <c r="Z20">
+        <v>25</v>
+      </c>
+      <c r="AA20">
+        <v>25</v>
+      </c>
+      <c r="AB20">
+        <v>7.5</v>
+      </c>
+      <c r="AC20">
+        <v>22.5</v>
+      </c>
+      <c r="AD20">
+        <v>25</v>
+      </c>
+      <c r="AE20">
+        <v>7.5</v>
+      </c>
+      <c r="AF20">
+        <v>20.5</v>
+      </c>
+      <c r="AG20">
+        <v>25</v>
+      </c>
+      <c r="AH20">
+        <v>7</v>
+      </c>
+      <c r="AI20">
+        <v>19</v>
+      </c>
+      <c r="AJ20">
+        <v>25</v>
+      </c>
+      <c r="AK20">
+        <v>7</v>
+      </c>
+      <c r="AL20">
+        <v>20</v>
+      </c>
+      <c r="AM20">
+        <v>25</v>
+      </c>
+      <c r="AN20">
+        <v>7</v>
+      </c>
+      <c r="AO20">
+        <v>49</v>
+      </c>
+      <c r="AP20">
+        <v>50</v>
+      </c>
+      <c r="AQ20">
+        <v>15</v>
+      </c>
+      <c r="AR20">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="AS20">
+        <v>50</v>
+      </c>
+      <c r="AT20">
+        <v>15</v>
+      </c>
+      <c r="AU20">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AV20">
+        <v>50</v>
+      </c>
+      <c r="AW20">
+        <v>15</v>
+      </c>
+      <c r="AX20">
+        <v>38</v>
+      </c>
+      <c r="AY20">
+        <v>50</v>
+      </c>
+      <c r="AZ20">
+        <v>15</v>
+      </c>
+      <c r="BA20">
+        <v>38</v>
+      </c>
+      <c r="BB20">
+        <v>50</v>
+      </c>
+      <c r="BC20">
+        <v>15</v>
+      </c>
+      <c r="BD20">
+        <v>38</v>
+      </c>
+      <c r="BE20">
+        <v>50</v>
+      </c>
+      <c r="BF20">
+        <v>15</v>
+      </c>
+      <c r="BG20">
+        <v>99</v>
+      </c>
+      <c r="BH20">
+        <v>79.17</v>
+      </c>
+      <c r="BI20">
+        <v>94.17</v>
+      </c>
+      <c r="BJ20">
+        <v>77.5</v>
+      </c>
+      <c r="BK20">
+        <v>75</v>
+      </c>
+      <c r="BL20">
+        <v>77</v>
+      </c>
+      <c r="BM20">
+        <v>100</v>
+      </c>
+      <c r="BN20">
+        <v>100</v>
+      </c>
+      <c r="BO20">
+        <v>100</v>
+      </c>
+      <c r="BP20">
+        <v>100</v>
+      </c>
+      <c r="BQ20">
+        <v>100</v>
+      </c>
+      <c r="BR20">
+        <v>100</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY20">
+        <v>501.84</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA20">
+        <v>600</v>
+      </c>
+      <c r="CB20">
+        <v>83.64</v>
+      </c>
+      <c r="CC20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:81">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>7.5</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>7.5</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>21</v>
+      </c>
+      <c r="R21">
+        <v>25</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21">
+        <v>25</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="W21">
+        <v>24</v>
+      </c>
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>22.5</v>
+      </c>
+      <c r="AA21">
+        <v>25</v>
+      </c>
+      <c r="AB21">
+        <v>7.5</v>
+      </c>
+      <c r="AC21">
+        <v>25</v>
+      </c>
+      <c r="AD21">
+        <v>25</v>
+      </c>
+      <c r="AE21">
+        <v>7.5</v>
+      </c>
+      <c r="AF21">
+        <v>19</v>
+      </c>
+      <c r="AG21">
+        <v>25</v>
+      </c>
+      <c r="AH21">
+        <v>7</v>
+      </c>
+      <c r="AI21">
+        <v>22</v>
+      </c>
+      <c r="AJ21">
+        <v>25</v>
+      </c>
+      <c r="AK21">
+        <v>7</v>
+      </c>
+      <c r="AL21">
+        <v>18</v>
+      </c>
+      <c r="AM21">
+        <v>25</v>
+      </c>
+      <c r="AN21">
+        <v>7</v>
+      </c>
+      <c r="AO21">
+        <v>20</v>
+      </c>
+      <c r="AP21">
+        <v>50</v>
+      </c>
+      <c r="AQ21">
+        <v>15</v>
+      </c>
+      <c r="AR21">
+        <v>25</v>
+      </c>
+      <c r="AS21">
+        <v>50</v>
+      </c>
+      <c r="AT21">
+        <v>15</v>
+      </c>
+      <c r="AU21">
+        <v>20</v>
+      </c>
+      <c r="AV21">
+        <v>50</v>
+      </c>
+      <c r="AW21">
+        <v>15</v>
+      </c>
+      <c r="AX21">
+        <v>23</v>
+      </c>
+      <c r="AY21">
+        <v>50</v>
+      </c>
+      <c r="AZ21">
+        <v>15</v>
+      </c>
+      <c r="BA21">
+        <v>24.5</v>
+      </c>
+      <c r="BB21">
+        <v>50</v>
+      </c>
+      <c r="BC21">
+        <v>15</v>
+      </c>
+      <c r="BD21">
+        <v>17</v>
+      </c>
+      <c r="BE21">
+        <v>50</v>
+      </c>
+      <c r="BF21">
+        <v>15</v>
+      </c>
+      <c r="BG21">
+        <v>66</v>
+      </c>
+      <c r="BH21">
+        <v>72.5</v>
+      </c>
+      <c r="BI21">
+        <v>70</v>
+      </c>
+      <c r="BJ21">
+        <v>62</v>
+      </c>
+      <c r="BK21">
+        <v>67.5</v>
+      </c>
+      <c r="BL21">
+        <v>49</v>
+      </c>
+      <c r="BM21">
+        <v>100</v>
+      </c>
+      <c r="BN21">
+        <v>100</v>
+      </c>
+      <c r="BO21">
+        <v>100</v>
+      </c>
+      <c r="BP21">
+        <v>100</v>
+      </c>
+      <c r="BQ21">
+        <v>100</v>
+      </c>
+      <c r="BR21">
+        <v>100</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY21">
+        <v>387</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA21">
+        <v>600</v>
+      </c>
+      <c r="CB21">
+        <v>64.5</v>
+      </c>
+      <c r="CC21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:81">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>7.5</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>7.5</v>
+      </c>
+      <c r="N22">
+        <v>16.5</v>
+      </c>
+      <c r="O22">
+        <v>25</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22">
         <v>23.5</v>
       </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
+      <c r="R22">
+        <v>25</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>16</v>
+      </c>
+      <c r="U22">
+        <v>25</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="W22">
         <v>23</v>
       </c>
-      <c r="L12">
-        <v>25</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12">
-        <v>25</v>
-      </c>
-      <c r="O12">
-        <v>25</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
+      <c r="X22">
+        <v>25</v>
+      </c>
+      <c r="Y22">
+        <v>7</v>
+      </c>
+      <c r="Z22">
+        <v>22.5</v>
+      </c>
+      <c r="AA22">
+        <v>25</v>
+      </c>
+      <c r="AB22">
+        <v>7.5</v>
+      </c>
+      <c r="AC22">
+        <v>25</v>
+      </c>
+      <c r="AD22">
+        <v>25</v>
+      </c>
+      <c r="AE22">
+        <v>7.5</v>
+      </c>
+      <c r="AF22">
+        <v>20</v>
+      </c>
+      <c r="AG22">
+        <v>25</v>
+      </c>
+      <c r="AH22">
+        <v>7</v>
+      </c>
+      <c r="AI22">
+        <v>23</v>
+      </c>
+      <c r="AJ22">
+        <v>25</v>
+      </c>
+      <c r="AK22">
+        <v>7</v>
+      </c>
+      <c r="AL22">
+        <v>19</v>
+      </c>
+      <c r="AM22">
+        <v>25</v>
+      </c>
+      <c r="AN22">
+        <v>7</v>
+      </c>
+      <c r="AO22">
+        <v>20</v>
+      </c>
+      <c r="AP22">
+        <v>50</v>
+      </c>
+      <c r="AQ22">
+        <v>15</v>
+      </c>
+      <c r="AR22">
+        <v>25</v>
+      </c>
+      <c r="AS22">
+        <v>50</v>
+      </c>
+      <c r="AT22">
+        <v>15</v>
+      </c>
+      <c r="AU22">
+        <v>20</v>
+      </c>
+      <c r="AV22">
+        <v>50</v>
+      </c>
+      <c r="AW22">
+        <v>15</v>
+      </c>
+      <c r="AX22">
+        <v>26</v>
+      </c>
+      <c r="AY22">
+        <v>50</v>
+      </c>
+      <c r="AZ22">
+        <v>15</v>
+      </c>
+      <c r="BA22">
+        <v>15</v>
+      </c>
+      <c r="BB22">
+        <v>50</v>
+      </c>
+      <c r="BC22">
+        <v>15</v>
+      </c>
+      <c r="BD22">
+        <v>18</v>
+      </c>
+      <c r="BE22">
+        <v>50</v>
+      </c>
+      <c r="BF22">
+        <v>15</v>
+      </c>
+      <c r="BG22">
+        <v>63</v>
+      </c>
+      <c r="BH22">
+        <v>72.5</v>
+      </c>
+      <c r="BI22">
+        <v>70</v>
+      </c>
+      <c r="BJ22">
+        <v>62.5</v>
+      </c>
+      <c r="BK22">
+        <v>61.5</v>
+      </c>
+      <c r="BL22">
+        <v>53</v>
+      </c>
+      <c r="BM22">
+        <v>100</v>
+      </c>
+      <c r="BN22">
+        <v>100</v>
+      </c>
+      <c r="BO22">
+        <v>100</v>
+      </c>
+      <c r="BP22">
+        <v>100</v>
+      </c>
+      <c r="BQ22">
+        <v>100</v>
+      </c>
+      <c r="BR22">
+        <v>100</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY22">
+        <v>382.5</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA22">
+        <v>600</v>
+      </c>
+      <c r="CB22">
+        <v>63.74999999999999</v>
+      </c>
+      <c r="CC22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:81">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>7.5</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>7.5</v>
+      </c>
+      <c r="N23">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+      <c r="R23">
+        <v>25</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>17</v>
+      </c>
+      <c r="U23">
+        <v>25</v>
+      </c>
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="W23">
+        <v>25</v>
+      </c>
+      <c r="X23">
+        <v>25</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>20</v>
+      </c>
+      <c r="AA23">
+        <v>25</v>
+      </c>
+      <c r="AB23">
+        <v>7.5</v>
+      </c>
+      <c r="AC23">
+        <v>22.5</v>
+      </c>
+      <c r="AD23">
+        <v>25</v>
+      </c>
+      <c r="AE23">
+        <v>7.5</v>
+      </c>
+      <c r="AF23">
+        <v>16.5</v>
+      </c>
+      <c r="AG23">
+        <v>25</v>
+      </c>
+      <c r="AH23">
+        <v>7</v>
+      </c>
+      <c r="AI23">
         <v>21</v>
       </c>
-      <c r="R12">
-        <v>25</v>
-      </c>
-      <c r="S12">
-        <v>7</v>
-      </c>
-      <c r="T12">
-        <v>8</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>3</v>
-      </c>
-      <c r="W12">
+      <c r="AJ23">
+        <v>25</v>
+      </c>
+      <c r="AK23">
+        <v>7</v>
+      </c>
+      <c r="AL23">
+        <v>19</v>
+      </c>
+      <c r="AM23">
+        <v>25</v>
+      </c>
+      <c r="AN23">
+        <v>7</v>
+      </c>
+      <c r="AO23">
+        <v>50</v>
+      </c>
+      <c r="AP23">
+        <v>50</v>
+      </c>
+      <c r="AQ23">
+        <v>15</v>
+      </c>
+      <c r="AR23">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AS23">
+        <v>50</v>
+      </c>
+      <c r="AT23">
+        <v>15</v>
+      </c>
+      <c r="AU23">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AV23">
+        <v>50</v>
+      </c>
+      <c r="AW23">
+        <v>15</v>
+      </c>
+      <c r="AX23">
+        <v>25</v>
+      </c>
+      <c r="AY23">
+        <v>50</v>
+      </c>
+      <c r="AZ23">
+        <v>15</v>
+      </c>
+      <c r="BA23">
+        <v>32.5</v>
+      </c>
+      <c r="BB23">
+        <v>50</v>
+      </c>
+      <c r="BC23">
+        <v>15</v>
+      </c>
+      <c r="BD23">
+        <v>38</v>
+      </c>
+      <c r="BE23">
+        <v>50</v>
+      </c>
+      <c r="BF23">
+        <v>15</v>
+      </c>
+      <c r="BG23">
+        <v>100</v>
+      </c>
+      <c r="BH23">
+        <v>93.33</v>
+      </c>
+      <c r="BI23">
+        <v>95.83</v>
+      </c>
+      <c r="BJ23">
+        <v>60.5</v>
+      </c>
+      <c r="BK23">
+        <v>70.5</v>
+      </c>
+      <c r="BL23">
+        <v>74</v>
+      </c>
+      <c r="BM23">
+        <v>100</v>
+      </c>
+      <c r="BN23">
+        <v>100</v>
+      </c>
+      <c r="BO23">
+        <v>100</v>
+      </c>
+      <c r="BP23">
+        <v>100</v>
+      </c>
+      <c r="BQ23">
+        <v>100</v>
+      </c>
+      <c r="BR23">
+        <v>100</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY23">
+        <v>494.16</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA23">
+        <v>600</v>
+      </c>
+      <c r="CB23">
+        <v>82.36</v>
+      </c>
+      <c r="CC23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:81">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24">
         <v>23</v>
       </c>
-      <c r="X12">
-        <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>7</v>
-      </c>
-      <c r="Z12">
-        <v>10</v>
-      </c>
-      <c r="AA12">
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <v>3</v>
-      </c>
-      <c r="AC12">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>7.5</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>7.5</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>25</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>25</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>25</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>25</v>
+      </c>
+      <c r="AB24">
+        <v>7.5</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>25</v>
+      </c>
+      <c r="AE24">
+        <v>7.5</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>25</v>
+      </c>
+      <c r="AH24">
+        <v>7</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>25</v>
+      </c>
+      <c r="AK24">
+        <v>7</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>25</v>
+      </c>
+      <c r="AN24">
+        <v>7</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>50</v>
+      </c>
+      <c r="AQ24">
+        <v>15</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>50</v>
+      </c>
+      <c r="AT24">
+        <v>15</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>50</v>
+      </c>
+      <c r="AW24">
+        <v>15</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>50</v>
+      </c>
+      <c r="AZ24">
+        <v>15</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>50</v>
+      </c>
+      <c r="BC24">
+        <v>15</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>50</v>
+      </c>
+      <c r="BF24">
+        <v>15</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>100</v>
+      </c>
+      <c r="BN24">
+        <v>100</v>
+      </c>
+      <c r="BO24">
+        <v>100</v>
+      </c>
+      <c r="BP24">
+        <v>100</v>
+      </c>
+      <c r="BQ24">
+        <v>100</v>
+      </c>
+      <c r="BR24">
+        <v>100</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA24">
+        <v>600</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:81">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25">
         <v>24</v>
       </c>
-      <c r="AD12">
-        <v>25</v>
-      </c>
-      <c r="AE12">
-        <v>7</v>
-      </c>
-      <c r="AF12">
-        <v>25</v>
-      </c>
-      <c r="AG12">
-        <v>25</v>
-      </c>
-      <c r="AH12">
-        <v>7</v>
-      </c>
-      <c r="AI12">
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>12.5</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>7.5</v>
+      </c>
+      <c r="K25">
+        <v>22.5</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>7.5</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>21</v>
+      </c>
+      <c r="R25">
+        <v>25</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>25</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>11</v>
+      </c>
+      <c r="X25">
+        <v>25</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+      <c r="AA25">
+        <v>25</v>
+      </c>
+      <c r="AB25">
+        <v>7.5</v>
+      </c>
+      <c r="AC25">
+        <v>22.5</v>
+      </c>
+      <c r="AD25">
+        <v>25</v>
+      </c>
+      <c r="AE25">
+        <v>7.5</v>
+      </c>
+      <c r="AF25">
+        <v>4.5</v>
+      </c>
+      <c r="AG25">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>7</v>
+      </c>
+      <c r="AI25">
+        <v>21</v>
+      </c>
+      <c r="AJ25">
+        <v>25</v>
+      </c>
+      <c r="AK25">
+        <v>7</v>
+      </c>
+      <c r="AL25">
+        <v>16</v>
+      </c>
+      <c r="AM25">
+        <v>25</v>
+      </c>
+      <c r="AN25">
+        <v>7</v>
+      </c>
+      <c r="AO25">
+        <v>27</v>
+      </c>
+      <c r="AP25">
+        <v>50</v>
+      </c>
+      <c r="AQ25">
+        <v>15</v>
+      </c>
+      <c r="AR25">
+        <v>40</v>
+      </c>
+      <c r="AS25">
+        <v>50</v>
+      </c>
+      <c r="AT25">
+        <v>15</v>
+      </c>
+      <c r="AU25">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="AV25">
+        <v>50</v>
+      </c>
+      <c r="AW25">
+        <v>15</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>50</v>
+      </c>
+      <c r="AZ25">
+        <v>15</v>
+      </c>
+      <c r="BA25">
+        <v>26</v>
+      </c>
+      <c r="BB25">
+        <v>50</v>
+      </c>
+      <c r="BC25">
+        <v>15</v>
+      </c>
+      <c r="BD25">
+        <v>23</v>
+      </c>
+      <c r="BE25">
+        <v>50</v>
+      </c>
+      <c r="BF25">
+        <v>15</v>
+      </c>
+      <c r="BG25">
+        <v>44</v>
+      </c>
+      <c r="BH25">
+        <v>67.5</v>
+      </c>
+      <c r="BI25">
+        <v>78.33</v>
+      </c>
+      <c r="BJ25">
+        <v>10.5</v>
+      </c>
+      <c r="BK25">
+        <v>68</v>
+      </c>
+      <c r="BL25">
+        <v>54</v>
+      </c>
+      <c r="BM25">
+        <v>100</v>
+      </c>
+      <c r="BN25">
+        <v>100</v>
+      </c>
+      <c r="BO25">
+        <v>100</v>
+      </c>
+      <c r="BP25">
+        <v>100</v>
+      </c>
+      <c r="BQ25">
+        <v>100</v>
+      </c>
+      <c r="BR25">
+        <v>100</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY25">
+        <v>322.33</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA25">
+        <v>600</v>
+      </c>
+      <c r="CB25">
+        <v>53.72166666666666</v>
+      </c>
+      <c r="CC25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:81">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>7.5</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>7.5</v>
+      </c>
+      <c r="N26">
+        <v>19.5</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>25</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>17</v>
+      </c>
+      <c r="U26">
+        <v>25</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>25</v>
+      </c>
+      <c r="X26">
+        <v>25</v>
+      </c>
+      <c r="Y26">
+        <v>7</v>
+      </c>
+      <c r="Z26">
+        <v>20</v>
+      </c>
+      <c r="AA26">
+        <v>25</v>
+      </c>
+      <c r="AB26">
+        <v>7.5</v>
+      </c>
+      <c r="AC26">
+        <v>25</v>
+      </c>
+      <c r="AD26">
+        <v>25</v>
+      </c>
+      <c r="AE26">
+        <v>7.5</v>
+      </c>
+      <c r="AF26">
+        <v>16.5</v>
+      </c>
+      <c r="AG26">
+        <v>25</v>
+      </c>
+      <c r="AH26">
+        <v>7</v>
+      </c>
+      <c r="AI26">
         <v>19</v>
       </c>
-      <c r="AJ12">
-        <v>25</v>
-      </c>
-      <c r="AK12">
-        <v>7</v>
-      </c>
-      <c r="AL12">
-        <v>10</v>
-      </c>
-      <c r="AM12">
-        <v>10</v>
-      </c>
-      <c r="AN12">
-        <v>3</v>
-      </c>
-      <c r="AO12">
-        <v>49</v>
-      </c>
-      <c r="AP12">
-        <v>50</v>
-      </c>
-      <c r="AQ12">
-        <v>15</v>
-      </c>
-      <c r="AR12">
-        <v>29</v>
-      </c>
-      <c r="AS12">
-        <v>30</v>
-      </c>
-      <c r="AT12">
-        <v>9</v>
-      </c>
-      <c r="AU12">
-        <v>44</v>
-      </c>
-      <c r="AV12">
-        <v>50</v>
-      </c>
-      <c r="AW12">
-        <v>15</v>
-      </c>
-      <c r="AX12">
-        <v>50</v>
-      </c>
-      <c r="AY12">
-        <v>50</v>
-      </c>
-      <c r="AZ12">
-        <v>15</v>
-      </c>
-      <c r="BA12">
-        <v>47</v>
-      </c>
-      <c r="BB12">
-        <v>50</v>
-      </c>
-      <c r="BC12">
-        <v>15</v>
-      </c>
-      <c r="BD12">
-        <v>30</v>
-      </c>
-      <c r="BE12">
-        <v>30</v>
-      </c>
-      <c r="BF12">
-        <v>9</v>
-      </c>
-      <c r="BG12">
-        <v>95.5</v>
-      </c>
-      <c r="BH12">
-        <v>49</v>
-      </c>
-      <c r="BI12">
-        <v>91</v>
-      </c>
-      <c r="BJ12">
-        <v>100</v>
-      </c>
-      <c r="BK12">
-        <v>87</v>
-      </c>
-      <c r="BL12">
+      <c r="AJ26">
+        <v>25</v>
+      </c>
+      <c r="AK26">
+        <v>7</v>
+      </c>
+      <c r="AL26">
+        <v>19</v>
+      </c>
+      <c r="AM26">
+        <v>25</v>
+      </c>
+      <c r="AN26">
+        <v>7</v>
+      </c>
+      <c r="AO26">
+        <v>50</v>
+      </c>
+      <c r="AP26">
+        <v>50</v>
+      </c>
+      <c r="AQ26">
+        <v>15</v>
+      </c>
+      <c r="AR26">
+        <v>50</v>
+      </c>
+      <c r="AS26">
+        <v>50</v>
+      </c>
+      <c r="AT26">
+        <v>15</v>
+      </c>
+      <c r="AU26">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AV26">
+        <v>50</v>
+      </c>
+      <c r="AW26">
+        <v>15</v>
+      </c>
+      <c r="AX26">
+        <v>34</v>
+      </c>
+      <c r="AY26">
+        <v>50</v>
+      </c>
+      <c r="AZ26">
+        <v>15</v>
+      </c>
+      <c r="BA26">
+        <v>41</v>
+      </c>
+      <c r="BB26">
+        <v>50</v>
+      </c>
+      <c r="BC26">
+        <v>15</v>
+      </c>
+      <c r="BD26">
+        <v>40</v>
+      </c>
+      <c r="BE26">
+        <v>50</v>
+      </c>
+      <c r="BF26">
+        <v>15</v>
+      </c>
+      <c r="BG26">
+        <v>95</v>
+      </c>
+      <c r="BH26">
+        <v>95</v>
+      </c>
+      <c r="BI26">
+        <v>98.33</v>
+      </c>
+      <c r="BJ26">
+        <v>70</v>
+      </c>
+      <c r="BK26">
+        <v>83</v>
+      </c>
+      <c r="BL26">
+        <v>76</v>
+      </c>
+      <c r="BM26">
+        <v>100</v>
+      </c>
+      <c r="BN26">
+        <v>100</v>
+      </c>
+      <c r="BO26">
+        <v>100</v>
+      </c>
+      <c r="BP26">
+        <v>100</v>
+      </c>
+      <c r="BQ26">
+        <v>100</v>
+      </c>
+      <c r="BR26">
+        <v>100</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY26">
+        <v>517.3299999999999</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA26">
+        <v>600</v>
+      </c>
+      <c r="CB26">
+        <v>86.22166666666665</v>
+      </c>
+      <c r="CC26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:81">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>7.5</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>7.5</v>
+      </c>
+      <c r="N27">
+        <v>19.5</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>7</v>
+      </c>
+      <c r="Q27">
+        <v>22.5</v>
+      </c>
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27">
+        <v>25</v>
+      </c>
+      <c r="V27">
+        <v>7</v>
+      </c>
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27">
+        <v>25</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>25</v>
+      </c>
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>7.5</v>
+      </c>
+      <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27">
+        <v>25</v>
+      </c>
+      <c r="AE27">
+        <v>7.5</v>
+      </c>
+      <c r="AF27">
+        <v>20</v>
+      </c>
+      <c r="AG27">
+        <v>25</v>
+      </c>
+      <c r="AH27">
+        <v>7</v>
+      </c>
+      <c r="AI27">
+        <v>23</v>
+      </c>
+      <c r="AJ27">
+        <v>25</v>
+      </c>
+      <c r="AK27">
+        <v>7</v>
+      </c>
+      <c r="AL27">
+        <v>16</v>
+      </c>
+      <c r="AM27">
+        <v>25</v>
+      </c>
+      <c r="AN27">
+        <v>7</v>
+      </c>
+      <c r="AO27">
+        <v>50</v>
+      </c>
+      <c r="AP27">
+        <v>50</v>
+      </c>
+      <c r="AQ27">
+        <v>15</v>
+      </c>
+      <c r="AR27">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="AS27">
+        <v>50</v>
+      </c>
+      <c r="AT27">
+        <v>15</v>
+      </c>
+      <c r="AU27">
+        <v>50</v>
+      </c>
+      <c r="AV27">
+        <v>50</v>
+      </c>
+      <c r="AW27">
+        <v>15</v>
+      </c>
+      <c r="AX27">
+        <v>36.5</v>
+      </c>
+      <c r="AY27">
+        <v>50</v>
+      </c>
+      <c r="AZ27">
+        <v>15</v>
+      </c>
+      <c r="BA27">
         <v>48</v>
       </c>
-      <c r="BM12">
-        <v>100</v>
-      </c>
-      <c r="BN12">
-        <v>50</v>
-      </c>
-      <c r="BO12">
-        <v>100</v>
-      </c>
-      <c r="BP12">
-        <v>100</v>
-      </c>
-      <c r="BQ12">
-        <v>100</v>
-      </c>
-      <c r="BR12">
-        <v>50</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY12">
-        <v>470.5</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>94</v>
-      </c>
-      <c r="CA12">
-        <v>500</v>
-      </c>
-      <c r="CB12">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="CC12">
-        <v>3</v>
+      <c r="BB27">
+        <v>50</v>
+      </c>
+      <c r="BC27">
+        <v>15</v>
+      </c>
+      <c r="BD27">
+        <v>41</v>
+      </c>
+      <c r="BE27">
+        <v>50</v>
+      </c>
+      <c r="BF27">
+        <v>15</v>
+      </c>
+      <c r="BG27">
+        <v>100</v>
+      </c>
+      <c r="BH27">
+        <v>98.33</v>
+      </c>
+      <c r="BI27">
+        <v>100</v>
+      </c>
+      <c r="BJ27">
+        <v>76</v>
+      </c>
+      <c r="BK27">
+        <v>93.5</v>
+      </c>
+      <c r="BL27">
+        <v>77</v>
+      </c>
+      <c r="BM27">
+        <v>100</v>
+      </c>
+      <c r="BN27">
+        <v>100</v>
+      </c>
+      <c r="BO27">
+        <v>100</v>
+      </c>
+      <c r="BP27">
+        <v>100</v>
+      </c>
+      <c r="BQ27">
+        <v>100</v>
+      </c>
+      <c r="BR27">
+        <v>100</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY27">
+        <v>544.8299999999999</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA27">
+        <v>600</v>
+      </c>
+      <c r="CB27">
+        <v>90.80499999999999</v>
+      </c>
+      <c r="CC27">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LKG/Result_Final.xlsx
+++ b/LKG/Result_Final.xlsx
@@ -978,22 +978,22 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>25</v>
@@ -1032,22 +1032,22 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF2">
         <v>24</v>
@@ -1086,22 +1086,22 @@
         <v>15</v>
       </c>
       <c r="AR2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX2">
         <v>50</v>
@@ -1134,10 +1134,10 @@
         <v>100</v>
       </c>
       <c r="BH2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ2">
         <v>99</v>
@@ -1152,10 +1152,10 @@
         <v>100</v>
       </c>
       <c r="BN2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP2">
         <v>100</v>
@@ -1185,16 +1185,16 @@
         <v>109</v>
       </c>
       <c r="BY2">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="BZ2" t="s">
         <v>109</v>
       </c>
       <c r="CA2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB2">
-        <v>95.83333333333334</v>
+        <v>95</v>
       </c>
       <c r="CC2">
         <v>1</v>
@@ -1223,22 +1223,22 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>24.5</v>
@@ -1277,22 +1277,22 @@
         <v>7</v>
       </c>
       <c r="Z3">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF3">
         <v>22</v>
@@ -1331,22 +1331,22 @@
         <v>15</v>
       </c>
       <c r="AR3">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AV3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX3">
         <v>37</v>
@@ -1379,10 +1379,10 @@
         <v>99</v>
       </c>
       <c r="BH3">
-        <v>94.17</v>
+        <v>47</v>
       </c>
       <c r="BI3">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="BJ3">
         <v>83.5</v>
@@ -1397,10 +1397,10 @@
         <v>100</v>
       </c>
       <c r="BN3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP3">
         <v>100</v>
@@ -1430,19 +1430,19 @@
         <v>109</v>
       </c>
       <c r="BY3">
-        <v>531.6700000000001</v>
+        <v>438.5</v>
       </c>
       <c r="BZ3" t="s">
         <v>109</v>
       </c>
       <c r="CA3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB3">
-        <v>88.61166666666668</v>
+        <v>87.7</v>
       </c>
       <c r="CC3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:81">
@@ -1468,22 +1468,22 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>14.5</v>
@@ -1522,22 +1522,22 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF4">
         <v>7.5</v>
@@ -1576,22 +1576,22 @@
         <v>15</v>
       </c>
       <c r="AR4">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AS4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU4">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="AV4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX4">
         <v>13</v>
@@ -1624,10 +1624,10 @@
         <v>71</v>
       </c>
       <c r="BH4">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="BI4">
-        <v>83.33</v>
+        <v>42</v>
       </c>
       <c r="BJ4">
         <v>35</v>
@@ -1642,10 +1642,10 @@
         <v>100</v>
       </c>
       <c r="BN4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP4">
         <v>100</v>
@@ -1675,19 +1675,19 @@
         <v>109</v>
       </c>
       <c r="BY4">
-        <v>394.33</v>
+        <v>310</v>
       </c>
       <c r="BZ4" t="s">
         <v>109</v>
       </c>
       <c r="CA4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB4">
-        <v>65.72166666666666</v>
+        <v>62</v>
       </c>
       <c r="CC4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1713,22 +1713,22 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>24</v>
@@ -1767,22 +1767,22 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF5">
         <v>24</v>
@@ -1821,22 +1821,22 @@
         <v>15</v>
       </c>
       <c r="AR5">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU5">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AV5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX5">
         <v>49</v>
@@ -1869,10 +1869,10 @@
         <v>98</v>
       </c>
       <c r="BH5">
-        <v>96.67</v>
+        <v>48</v>
       </c>
       <c r="BI5">
-        <v>96.67</v>
+        <v>48</v>
       </c>
       <c r="BJ5">
         <v>97</v>
@@ -1887,10 +1887,10 @@
         <v>100</v>
       </c>
       <c r="BN5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP5">
         <v>100</v>
@@ -1920,16 +1920,16 @@
         <v>109</v>
       </c>
       <c r="BY5">
-        <v>561.84</v>
+        <v>464.5</v>
       </c>
       <c r="BZ5" t="s">
         <v>109</v>
       </c>
       <c r="CA5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB5">
-        <v>93.64</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="CC5">
         <v>2</v>
@@ -1958,22 +1958,22 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>24.5</v>
@@ -2015,19 +2015,19 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -2066,22 +2066,22 @@
         <v>15</v>
       </c>
       <c r="AR6">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX6">
         <v>47</v>
@@ -2114,10 +2114,10 @@
         <v>62</v>
       </c>
       <c r="BH6">
-        <v>73.33</v>
+        <v>39</v>
       </c>
       <c r="BI6">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="BJ6">
         <v>71.5</v>
@@ -2132,10 +2132,10 @@
         <v>100</v>
       </c>
       <c r="BN6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP6">
         <v>100</v>
@@ -2165,16 +2165,16 @@
         <v>109</v>
       </c>
       <c r="BY6">
-        <v>414.83</v>
+        <v>345.5</v>
       </c>
       <c r="BZ6" t="s">
         <v>109</v>
       </c>
       <c r="CA6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB6">
-        <v>69.13833333333334</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="CC6">
         <v>19</v>
@@ -2203,22 +2203,22 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>21</v>
@@ -2257,22 +2257,22 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>17</v>
@@ -2311,22 +2311,22 @@
         <v>15</v>
       </c>
       <c r="AR7">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AS7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU7">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AV7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX7">
         <v>42.5</v>
@@ -2359,10 +2359,10 @@
         <v>100</v>
       </c>
       <c r="BH7">
-        <v>91.67</v>
+        <v>45</v>
       </c>
       <c r="BI7">
-        <v>89.17</v>
+        <v>45</v>
       </c>
       <c r="BJ7">
         <v>80.5</v>
@@ -2377,10 +2377,10 @@
         <v>100</v>
       </c>
       <c r="BN7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP7">
         <v>100</v>
@@ -2410,16 +2410,16 @@
         <v>109</v>
       </c>
       <c r="BY7">
-        <v>518.34</v>
+        <v>427.5</v>
       </c>
       <c r="BZ7" t="s">
         <v>109</v>
       </c>
       <c r="CA7">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB7">
-        <v>86.39</v>
+        <v>85.5</v>
       </c>
       <c r="CC7">
         <v>10</v>
@@ -2448,22 +2448,22 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>18</v>
@@ -2502,22 +2502,22 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>18</v>
@@ -2556,22 +2556,22 @@
         <v>15</v>
       </c>
       <c r="AR8">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU8">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AV8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX8">
         <v>45</v>
@@ -2604,10 +2604,10 @@
         <v>99</v>
       </c>
       <c r="BH8">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BI8">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BJ8">
         <v>81</v>
@@ -2622,10 +2622,10 @@
         <v>100</v>
       </c>
       <c r="BN8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP8">
         <v>100</v>
@@ -2655,16 +2655,16 @@
         <v>109</v>
       </c>
       <c r="BY8">
-        <v>554.66</v>
+        <v>456</v>
       </c>
       <c r="BZ8" t="s">
         <v>109</v>
       </c>
       <c r="CA8">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB8">
-        <v>92.44333333333333</v>
+        <v>91.2</v>
       </c>
       <c r="CC8">
         <v>4</v>
@@ -2693,22 +2693,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>23</v>
@@ -2747,22 +2747,22 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF9">
         <v>24</v>
@@ -2801,22 +2801,22 @@
         <v>15</v>
       </c>
       <c r="AR9">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU9">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AV9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX9">
         <v>42.5</v>
@@ -2849,10 +2849,10 @@
         <v>100</v>
       </c>
       <c r="BH9">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BI9">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BJ9">
         <v>89.5</v>
@@ -2867,10 +2867,10 @@
         <v>100</v>
       </c>
       <c r="BN9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP9">
         <v>100</v>
@@ -2900,16 +2900,16 @@
         <v>109</v>
       </c>
       <c r="BY9">
-        <v>556.16</v>
+        <v>457.5</v>
       </c>
       <c r="BZ9" t="s">
         <v>109</v>
       </c>
       <c r="CA9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB9">
-        <v>92.69333333333333</v>
+        <v>91.5</v>
       </c>
       <c r="CC9">
         <v>3</v>
@@ -2938,22 +2938,22 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>20.5</v>
@@ -2992,22 +2992,22 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF10">
         <v>19</v>
@@ -3046,22 +3046,22 @@
         <v>15</v>
       </c>
       <c r="AR10">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AS10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU10">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AV10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX10">
         <v>24</v>
@@ -3094,10 +3094,10 @@
         <v>69</v>
       </c>
       <c r="BH10">
-        <v>89.17</v>
+        <v>44</v>
       </c>
       <c r="BI10">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BJ10">
         <v>63.5</v>
@@ -3112,10 +3112,10 @@
         <v>100</v>
       </c>
       <c r="BN10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP10">
         <v>100</v>
@@ -3145,19 +3145,19 @@
         <v>109</v>
       </c>
       <c r="BY10">
-        <v>440.5</v>
+        <v>346</v>
       </c>
       <c r="BZ10" t="s">
         <v>109</v>
       </c>
       <c r="CA10">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB10">
-        <v>73.41666666666666</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="CC10">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -3183,22 +3183,22 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>16.5</v>
@@ -3237,22 +3237,22 @@
         <v>7</v>
       </c>
       <c r="Z11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC11">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF11">
         <v>23</v>
@@ -3291,22 +3291,22 @@
         <v>15</v>
       </c>
       <c r="AR11">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX11">
         <v>29</v>
@@ -3339,10 +3339,10 @@
         <v>96</v>
       </c>
       <c r="BH11">
-        <v>88.33</v>
+        <v>45</v>
       </c>
       <c r="BI11">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BJ11">
         <v>68.5</v>
@@ -3357,10 +3357,10 @@
         <v>100</v>
       </c>
       <c r="BN11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP11">
         <v>100</v>
@@ -3390,19 +3390,19 @@
         <v>109</v>
       </c>
       <c r="BY11">
-        <v>529.3299999999999</v>
+        <v>437.5</v>
       </c>
       <c r="BZ11" t="s">
         <v>109</v>
       </c>
       <c r="CA11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB11">
-        <v>88.22166666666665</v>
+        <v>87.5</v>
       </c>
       <c r="CC11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:81">
@@ -3428,22 +3428,22 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>21</v>
@@ -3482,22 +3482,22 @@
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF12">
         <v>16.5</v>
@@ -3536,22 +3536,22 @@
         <v>15</v>
       </c>
       <c r="AR12">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AS12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX12">
         <v>33</v>
@@ -3584,10 +3584,10 @@
         <v>89</v>
       </c>
       <c r="BH12">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="BI12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ12">
         <v>70.5</v>
@@ -3602,10 +3602,10 @@
         <v>100</v>
       </c>
       <c r="BN12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP12">
         <v>100</v>
@@ -3635,16 +3635,16 @@
         <v>109</v>
       </c>
       <c r="BY12">
-        <v>501.5</v>
+        <v>410.5</v>
       </c>
       <c r="BZ12" t="s">
         <v>109</v>
       </c>
       <c r="CA12">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB12">
-        <v>83.58333333333333</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="CC12">
         <v>13</v>
@@ -3673,22 +3673,22 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>17</v>
@@ -3727,22 +3727,22 @@
         <v>7</v>
       </c>
       <c r="Z13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC13">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AD13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF13">
         <v>14</v>
@@ -3781,22 +3781,22 @@
         <v>15</v>
       </c>
       <c r="AR13">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX13">
         <v>15</v>
@@ -3829,10 +3829,10 @@
         <v>35</v>
       </c>
       <c r="BH13">
-        <v>81.67</v>
+        <v>42</v>
       </c>
       <c r="BI13">
-        <v>37.5</v>
+        <v>17</v>
       </c>
       <c r="BJ13">
         <v>46</v>
@@ -3847,10 +3847,10 @@
         <v>100</v>
       </c>
       <c r="BN13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP13">
         <v>100</v>
@@ -3880,16 +3880,16 @@
         <v>109</v>
       </c>
       <c r="BY13">
-        <v>305.67</v>
+        <v>245.5</v>
       </c>
       <c r="BZ13" t="s">
         <v>109</v>
       </c>
       <c r="CA13">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB13">
-        <v>50.94500000000001</v>
+        <v>49.1</v>
       </c>
       <c r="CC13">
         <v>25</v>
@@ -3918,22 +3918,22 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>16</v>
@@ -3972,22 +3972,22 @@
         <v>7</v>
       </c>
       <c r="Z14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF14">
         <v>10.5</v>
@@ -4026,22 +4026,22 @@
         <v>15</v>
       </c>
       <c r="AR14">
-        <v>38.33333333333334</v>
+        <v>23</v>
       </c>
       <c r="AS14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU14">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AV14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX14">
         <v>20</v>
@@ -4074,10 +4074,10 @@
         <v>71</v>
       </c>
       <c r="BH14">
-        <v>83.33</v>
+        <v>41</v>
       </c>
       <c r="BI14">
-        <v>91.67</v>
+        <v>45</v>
       </c>
       <c r="BJ14">
         <v>46.5</v>
@@ -4092,10 +4092,10 @@
         <v>100</v>
       </c>
       <c r="BN14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP14">
         <v>100</v>
@@ -4125,16 +4125,16 @@
         <v>109</v>
       </c>
       <c r="BY14">
-        <v>438.5</v>
+        <v>349.5</v>
       </c>
       <c r="BZ14" t="s">
         <v>109</v>
       </c>
       <c r="CA14">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB14">
-        <v>73.08333333333333</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="CC14">
         <v>17</v>
@@ -4163,22 +4163,22 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>21</v>
@@ -4217,22 +4217,22 @@
         <v>7</v>
       </c>
       <c r="Z15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF15">
         <v>23</v>
@@ -4271,22 +4271,22 @@
         <v>15</v>
       </c>
       <c r="AR15">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX15">
         <v>37</v>
@@ -4319,10 +4319,10 @@
         <v>82</v>
       </c>
       <c r="BH15">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BI15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ15">
         <v>81</v>
@@ -4337,10 +4337,10 @@
         <v>100</v>
       </c>
       <c r="BN15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP15">
         <v>100</v>
@@ -4370,19 +4370,19 @@
         <v>109</v>
       </c>
       <c r="BY15">
-        <v>533.3299999999999</v>
+        <v>434</v>
       </c>
       <c r="BZ15" t="s">
         <v>109</v>
       </c>
       <c r="CA15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB15">
-        <v>88.88833333333332</v>
+        <v>86.8</v>
       </c>
       <c r="CC15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:81">
@@ -4408,22 +4408,22 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>13.5</v>
@@ -4465,19 +4465,19 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -4516,22 +4516,22 @@
         <v>15</v>
       </c>
       <c r="AR16">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU16">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AV16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX16">
         <v>43</v>
@@ -4564,10 +4564,10 @@
         <v>75</v>
       </c>
       <c r="BH16">
-        <v>73.33</v>
+        <v>39</v>
       </c>
       <c r="BI16">
-        <v>71.67</v>
+        <v>38</v>
       </c>
       <c r="BJ16">
         <v>56.5</v>
@@ -4582,10 +4582,10 @@
         <v>100</v>
       </c>
       <c r="BN16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP16">
         <v>100</v>
@@ -4615,19 +4615,19 @@
         <v>109</v>
       </c>
       <c r="BY16">
-        <v>384.5</v>
+        <v>316.5</v>
       </c>
       <c r="BZ16" t="s">
         <v>109</v>
       </c>
       <c r="CA16">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB16">
-        <v>64.08333333333334</v>
+        <v>63.3</v>
       </c>
       <c r="CC16">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:81">
@@ -4653,22 +4653,22 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>19</v>
@@ -4707,22 +4707,22 @@
         <v>7</v>
       </c>
       <c r="Z17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF17">
         <v>21</v>
@@ -4761,22 +4761,22 @@
         <v>15</v>
       </c>
       <c r="AR17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX17">
         <v>40</v>
@@ -4809,10 +4809,10 @@
         <v>99</v>
       </c>
       <c r="BH17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ17">
         <v>80</v>
@@ -4827,10 +4827,10 @@
         <v>100</v>
       </c>
       <c r="BN17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP17">
         <v>100</v>
@@ -4860,19 +4860,19 @@
         <v>109</v>
       </c>
       <c r="BY17">
-        <v>531</v>
+        <v>431</v>
       </c>
       <c r="BZ17" t="s">
         <v>109</v>
       </c>
       <c r="CA17">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB17">
-        <v>88.5</v>
+        <v>86.2</v>
       </c>
       <c r="CC17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:81">
@@ -4898,22 +4898,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>17.5</v>
@@ -4952,22 +4952,22 @@
         <v>7</v>
       </c>
       <c r="Z18">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="AD18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF18">
         <v>19</v>
@@ -5006,22 +5006,22 @@
         <v>15</v>
       </c>
       <c r="AR18">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AS18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU18">
-        <v>23.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="AV18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX18">
         <v>37.5</v>
@@ -5054,10 +5054,10 @@
         <v>74</v>
       </c>
       <c r="BH18">
-        <v>87.5</v>
+        <v>44</v>
       </c>
       <c r="BI18">
-        <v>58.33</v>
+        <v>28</v>
       </c>
       <c r="BJ18">
         <v>74</v>
@@ -5072,10 +5072,10 @@
         <v>100</v>
       </c>
       <c r="BN18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP18">
         <v>100</v>
@@ -5105,19 +5105,19 @@
         <v>109</v>
       </c>
       <c r="BY18">
-        <v>432.83</v>
+        <v>359</v>
       </c>
       <c r="BZ18" t="s">
         <v>109</v>
       </c>
       <c r="CA18">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB18">
-        <v>72.13833333333332</v>
+        <v>71.8</v>
       </c>
       <c r="CC18">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:81">
@@ -5143,22 +5143,22 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>19.5</v>
@@ -5197,22 +5197,22 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF19">
         <v>18</v>
@@ -5251,22 +5251,22 @@
         <v>15</v>
       </c>
       <c r="AR19">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU19">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AV19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX19">
         <v>26</v>
@@ -5299,10 +5299,10 @@
         <v>84</v>
       </c>
       <c r="BH19">
-        <v>94.17</v>
+        <v>47</v>
       </c>
       <c r="BI19">
-        <v>76.67</v>
+        <v>39</v>
       </c>
       <c r="BJ19">
         <v>63.5</v>
@@ -5317,10 +5317,10 @@
         <v>100</v>
       </c>
       <c r="BN19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP19">
         <v>100</v>
@@ -5350,16 +5350,16 @@
         <v>109</v>
       </c>
       <c r="BY19">
-        <v>461.84</v>
+        <v>377</v>
       </c>
       <c r="BZ19" t="s">
         <v>109</v>
       </c>
       <c r="CA19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB19">
-        <v>76.97333333333334</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="CC19">
         <v>15</v>
@@ -5388,22 +5388,22 @@
         <v>7</v>
       </c>
       <c r="H20">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>19</v>
@@ -5442,22 +5442,22 @@
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC20">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF20">
         <v>20.5</v>
@@ -5496,22 +5496,22 @@
         <v>15</v>
       </c>
       <c r="AR20">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="AS20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU20">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AV20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX20">
         <v>38</v>
@@ -5544,10 +5544,10 @@
         <v>99</v>
       </c>
       <c r="BH20">
-        <v>79.17</v>
+        <v>39</v>
       </c>
       <c r="BI20">
-        <v>94.17</v>
+        <v>47</v>
       </c>
       <c r="BJ20">
         <v>77.5</v>
@@ -5562,10 +5562,10 @@
         <v>100</v>
       </c>
       <c r="BN20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP20">
         <v>100</v>
@@ -5595,16 +5595,16 @@
         <v>109</v>
       </c>
       <c r="BY20">
-        <v>501.84</v>
+        <v>414.5</v>
       </c>
       <c r="BZ20" t="s">
         <v>109</v>
       </c>
       <c r="CA20">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB20">
-        <v>83.64</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="CC20">
         <v>12</v>
@@ -5633,22 +5633,22 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>20</v>
@@ -5687,22 +5687,22 @@
         <v>7</v>
       </c>
       <c r="Z21">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF21">
         <v>19</v>
@@ -5741,22 +5741,22 @@
         <v>15</v>
       </c>
       <c r="AR21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AS21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AV21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX21">
         <v>23</v>
@@ -5789,10 +5789,10 @@
         <v>66</v>
       </c>
       <c r="BH21">
-        <v>72.5</v>
+        <v>34</v>
       </c>
       <c r="BI21">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="BJ21">
         <v>62</v>
@@ -5807,10 +5807,10 @@
         <v>100</v>
       </c>
       <c r="BN21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP21">
         <v>100</v>
@@ -5840,16 +5840,16 @@
         <v>109</v>
       </c>
       <c r="BY21">
-        <v>387</v>
+        <v>310.5</v>
       </c>
       <c r="BZ21" t="s">
         <v>109</v>
       </c>
       <c r="CA21">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB21">
-        <v>64.5</v>
+        <v>62.1</v>
       </c>
       <c r="CC21">
         <v>21</v>
@@ -5878,22 +5878,22 @@
         <v>7</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>16.5</v>
@@ -5932,22 +5932,22 @@
         <v>7</v>
       </c>
       <c r="Z22">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF22">
         <v>20</v>
@@ -5986,22 +5986,22 @@
         <v>15</v>
       </c>
       <c r="AR22">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AS22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AV22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX22">
         <v>26</v>
@@ -6034,10 +6034,10 @@
         <v>63</v>
       </c>
       <c r="BH22">
-        <v>72.5</v>
+        <v>34</v>
       </c>
       <c r="BI22">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="BJ22">
         <v>62.5</v>
@@ -6052,10 +6052,10 @@
         <v>100</v>
       </c>
       <c r="BN22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP22">
         <v>100</v>
@@ -6085,16 +6085,16 @@
         <v>109</v>
       </c>
       <c r="BY22">
-        <v>382.5</v>
+        <v>306</v>
       </c>
       <c r="BZ22" t="s">
         <v>109</v>
       </c>
       <c r="CA22">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB22">
-        <v>63.74999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="CC22">
         <v>23</v>
@@ -6123,22 +6123,22 @@
         <v>7</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>19</v>
@@ -6177,22 +6177,22 @@
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC23">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF23">
         <v>16.5</v>
@@ -6231,22 +6231,22 @@
         <v>15</v>
       </c>
       <c r="AR23">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU23">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AV23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX23">
         <v>25</v>
@@ -6279,10 +6279,10 @@
         <v>100</v>
       </c>
       <c r="BH23">
-        <v>93.33</v>
+        <v>47</v>
       </c>
       <c r="BI23">
-        <v>95.83</v>
+        <v>48</v>
       </c>
       <c r="BJ23">
         <v>60.5</v>
@@ -6297,10 +6297,10 @@
         <v>100</v>
       </c>
       <c r="BN23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP23">
         <v>100</v>
@@ -6330,16 +6330,16 @@
         <v>109</v>
       </c>
       <c r="BY23">
-        <v>494.16</v>
+        <v>400</v>
       </c>
       <c r="BZ23" t="s">
         <v>109</v>
       </c>
       <c r="CA23">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB23">
-        <v>82.36</v>
+        <v>80</v>
       </c>
       <c r="CC23">
         <v>14</v>
@@ -6371,19 +6371,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -6425,19 +6425,19 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -6479,19 +6479,19 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU24">
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>100</v>
       </c>
       <c r="BN24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP24">
         <v>100</v>
@@ -6581,7 +6581,7 @@
         <v>110</v>
       </c>
       <c r="CA24">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB24">
         <v>0</v>
@@ -6613,22 +6613,22 @@
         <v>7</v>
       </c>
       <c r="H25">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -6667,22 +6667,22 @@
         <v>7</v>
       </c>
       <c r="Z25">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC25">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF25">
         <v>4.5</v>
@@ -6721,22 +6721,22 @@
         <v>15</v>
       </c>
       <c r="AR25">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AS25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU25">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="AV25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX25">
         <v>4</v>
@@ -6769,10 +6769,10 @@
         <v>44</v>
       </c>
       <c r="BH25">
-        <v>67.5</v>
+        <v>35</v>
       </c>
       <c r="BI25">
-        <v>78.33</v>
+        <v>38</v>
       </c>
       <c r="BJ25">
         <v>10.5</v>
@@ -6787,10 +6787,10 @@
         <v>100</v>
       </c>
       <c r="BN25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP25">
         <v>100</v>
@@ -6820,16 +6820,16 @@
         <v>109</v>
       </c>
       <c r="BY25">
-        <v>322.33</v>
+        <v>249.5</v>
       </c>
       <c r="BZ25" t="s">
         <v>109</v>
       </c>
       <c r="CA25">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB25">
-        <v>53.72166666666666</v>
+        <v>49.9</v>
       </c>
       <c r="CC25">
         <v>24</v>
@@ -6858,22 +6858,22 @@
         <v>7</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>19.5</v>
@@ -6912,22 +6912,22 @@
         <v>7</v>
       </c>
       <c r="Z26">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF26">
         <v>16.5</v>
@@ -6966,22 +6966,22 @@
         <v>15</v>
       </c>
       <c r="AR26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU26">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AV26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX26">
         <v>34</v>
@@ -7014,10 +7014,10 @@
         <v>95</v>
       </c>
       <c r="BH26">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="BI26">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BJ26">
         <v>70</v>
@@ -7032,10 +7032,10 @@
         <v>100</v>
       </c>
       <c r="BN26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP26">
         <v>100</v>
@@ -7065,16 +7065,16 @@
         <v>109</v>
       </c>
       <c r="BY26">
-        <v>517.3299999999999</v>
+        <v>421</v>
       </c>
       <c r="BZ26" t="s">
         <v>109</v>
       </c>
       <c r="CA26">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB26">
-        <v>86.22166666666665</v>
+        <v>84.2</v>
       </c>
       <c r="CC26">
         <v>11</v>
@@ -7103,22 +7103,22 @@
         <v>7</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>19.5</v>
@@ -7157,22 +7157,22 @@
         <v>7</v>
       </c>
       <c r="Z27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF27">
         <v>20</v>
@@ -7211,22 +7211,22 @@
         <v>15</v>
       </c>
       <c r="AR27">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX27">
         <v>36.5</v>
@@ -7259,10 +7259,10 @@
         <v>100</v>
       </c>
       <c r="BH27">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BI27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ27">
         <v>76</v>
@@ -7277,10 +7277,10 @@
         <v>100</v>
       </c>
       <c r="BN27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP27">
         <v>100</v>
@@ -7310,16 +7310,16 @@
         <v>109</v>
       </c>
       <c r="BY27">
-        <v>544.8299999999999</v>
+        <v>445.5</v>
       </c>
       <c r="BZ27" t="s">
         <v>109</v>
       </c>
       <c r="CA27">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB27">
-        <v>90.80499999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="CC27">
         <v>5</v>
